--- a/use cases and tests/battery performance - test 1.xlsx
+++ b/use cases and tests/battery performance - test 1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="45" windowWidth="20115" windowHeight="7995"/>
+    <workbookView xWindow="240" yWindow="45" windowWidth="20115" windowHeight="7995" tabRatio="492"/>
   </bookViews>
   <sheets>
     <sheet name="results 1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Date</t>
   </si>
@@ -24,15 +24,20 @@
   <si>
     <t>Voltage</t>
   </si>
+  <si>
+    <t>Sr.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="3">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="167" formatCode="_(* #,##0.0000_);_(* \(#,##0.0000\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -40,13 +45,37 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Roboto"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="Roboto"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -58,15 +87,31 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -88,7 +133,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'results 1'!$C$1</c:f>
+              <c:f>'results 1'!$E$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -110,717 +155,717 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'results 1'!$B$2:$B$234</c:f>
+              <c:f>'results 1'!$B$3:$B$235</c:f>
               <c:numCache>
-                <c:formatCode>[$-F400]h:mm:ss\ AM/PM</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="233"/>
                 <c:pt idx="0">
-                  <c:v>0.90821759259259249</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.92478009259259253</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.98675925925925922</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.98996527777777776</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.48020833333333335</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.49621527777777774</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.49743055555555554</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.49768518518518517</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.49859953703703702</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.49982638888888892</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.55092592592592593</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.64833333333333332</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.68896990740740749</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.74380787037037033</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.74421296296296291</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.74561342592592583</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.74597222222222215</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.83644675925925915</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.84047453703703701</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.84693287037037035</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.84712962962962957</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.85248842592592589</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.85380787037037031</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.87866898148148154</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.90976851851851848</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.9874074074074074</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.15857638888888889</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.50659722222222225</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.50877314814814811</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.54200231481481487</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.54217592592592589</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.54230324074074077</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.54284722222222226</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.55708333333333326</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.56328703703703698</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.5635648148148148</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.58445601851851847</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.58445601851851847</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.58629629629629632</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.58658564814814818</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.6320486111111111</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.64870370370370367</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.65318287037037037</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.65431712962962962</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.65460648148148148</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.65495370370370376</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.65516203703703701</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.65537037037037038</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.65554398148148152</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.78802083333333339</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.7898842592592592</c:v>
+                  <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.91557870370370376</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.92074074074074075</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.93745370370370373</c:v>
+                  <c:v>54</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.94237268518518524</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>6.7372685185185188E-2</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.43472222222222223</c:v>
+                  <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.43569444444444444</c:v>
+                  <c:v>58</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.43648148148148147</c:v>
+                  <c:v>59</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.44494212962962965</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.44569444444444445</c:v>
+                  <c:v>61</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.65668981481481481</c:v>
+                  <c:v>62</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.67038194444444443</c:v>
+                  <c:v>63</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.68290509259259258</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0.76023148148148145</c:v>
+                  <c:v>65</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.76043981481481471</c:v>
+                  <c:v>66</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0.76061342592592596</c:v>
+                  <c:v>67</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0.80017361111111107</c:v>
+                  <c:v>68</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0.90063657407407405</c:v>
+                  <c:v>69</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0.90125</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0.90153935185185186</c:v>
+                  <c:v>71</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0.91076388888888893</c:v>
+                  <c:v>72</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0.91114583333333332</c:v>
+                  <c:v>73</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0.91297453703703713</c:v>
+                  <c:v>74</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0.95065972222222228</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0.97071759259259249</c:v>
+                  <c:v>76</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>1.7361111111111112E-2</c:v>
+                  <c:v>77</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0.37662037037037038</c:v>
+                  <c:v>78</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0.3913194444444445</c:v>
+                  <c:v>79</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>0.39894675925925926</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>0.62702546296296291</c:v>
+                  <c:v>81</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0.62831018518518522</c:v>
+                  <c:v>82</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>0.65743055555555563</c:v>
+                  <c:v>83</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0.65790509259259256</c:v>
+                  <c:v>84</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0.65809027777777784</c:v>
+                  <c:v>85</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>0.65826388888888887</c:v>
+                  <c:v>86</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>0.66459490740740745</c:v>
+                  <c:v>87</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>0.66659722222222217</c:v>
+                  <c:v>88</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>0.666875</c:v>
+                  <c:v>89</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>0.66778935185185195</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>0.66856481481481478</c:v>
+                  <c:v>91</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>0.6696643518518518</c:v>
+                  <c:v>92</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>0.669988425925926</c:v>
+                  <c:v>93</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>0.67020833333333341</c:v>
+                  <c:v>94</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>0.67054398148148142</c:v>
+                  <c:v>95</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>0.67086805555555562</c:v>
+                  <c:v>96</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>0.67109953703703706</c:v>
+                  <c:v>97</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>0.67133101851851851</c:v>
+                  <c:v>98</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>0.67164351851851845</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>0.67180555555555566</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>0.67180555555555566</c:v>
+                  <c:v>101</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>0.67195601851851849</c:v>
+                  <c:v>102</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>0.71586805555555555</c:v>
+                  <c:v>103</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>0.75357638888888889</c:v>
+                  <c:v>104</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>0.75395833333333329</c:v>
+                  <c:v>105</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>0.76038194444444451</c:v>
+                  <c:v>106</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>0.76091435185185186</c:v>
+                  <c:v>107</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>0.76180555555555562</c:v>
+                  <c:v>108</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>0.76187499999999997</c:v>
+                  <c:v>109</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>0.7637962962962962</c:v>
+                  <c:v>110</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>0.7642592592592593</c:v>
+                  <c:v>111</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>0.76440972222222225</c:v>
+                  <c:v>112</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>0.76640046296296294</c:v>
+                  <c:v>113</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>0.77173611111111118</c:v>
+                  <c:v>114</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>0.79357638888888893</c:v>
+                  <c:v>115</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>0.81020833333333331</c:v>
+                  <c:v>116</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>0.81141203703703713</c:v>
+                  <c:v>117</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>0.81165509259259261</c:v>
+                  <c:v>118</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>0.81180555555555556</c:v>
+                  <c:v>119</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>0.81194444444444447</c:v>
+                  <c:v>120</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>0.8121990740740741</c:v>
+                  <c:v>121</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>0.81238425925925928</c:v>
+                  <c:v>122</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>0.81372685185185178</c:v>
+                  <c:v>123</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>0.81393518518518526</c:v>
+                  <c:v>124</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>0.82224537037037038</c:v>
+                  <c:v>125</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>0.82890046296296294</c:v>
+                  <c:v>126</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>0.82923611111111117</c:v>
+                  <c:v>127</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>0.8297337962962964</c:v>
+                  <c:v>128</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>0.82986111111111116</c:v>
+                  <c:v>129</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>0.83030092592592597</c:v>
+                  <c:v>130</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>0.93616898148148142</c:v>
+                  <c:v>131</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>0.93694444444444447</c:v>
+                  <c:v>132</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>0.93726851851851845</c:v>
+                  <c:v>133</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>0.93792824074074066</c:v>
+                  <c:v>134</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>0.93877314814814816</c:v>
+                  <c:v>135</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>0.93915509259259267</c:v>
+                  <c:v>136</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>0.94085648148148149</c:v>
+                  <c:v>137</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>0.9418171296296296</c:v>
+                  <c:v>138</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>0.94335648148148143</c:v>
+                  <c:v>139</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>0.94353009259259257</c:v>
+                  <c:v>140</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>0.94575231481481481</c:v>
+                  <c:v>141</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>0.94671296296296292</c:v>
+                  <c:v>142</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>0.94783564814814814</c:v>
+                  <c:v>143</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>0.95825231481481488</c:v>
+                  <c:v>144</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>0.96069444444444452</c:v>
+                  <c:v>145</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>0.96478009259259256</c:v>
+                  <c:v>146</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>0.9657175925925926</c:v>
+                  <c:v>147</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>0.96805555555555556</c:v>
+                  <c:v>148</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>0.96885416666666668</c:v>
+                  <c:v>149</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>0.97099537037037031</c:v>
+                  <c:v>150</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>0.97233796296296304</c:v>
+                  <c:v>151</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>0.98799768518518516</c:v>
+                  <c:v>152</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>7.2418981481481473E-2</c:v>
+                  <c:v>153</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>7.2662037037037039E-2</c:v>
+                  <c:v>154</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>7.2835648148148149E-2</c:v>
+                  <c:v>155</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>7.3206018518518517E-2</c:v>
+                  <c:v>156</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>0.16576388888888891</c:v>
+                  <c:v>157</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>0.18145833333333336</c:v>
+                  <c:v>158</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>0.19219907407407408</c:v>
+                  <c:v>159</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>0.19268518518518518</c:v>
+                  <c:v>160</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>0.19317129629629629</c:v>
+                  <c:v>161</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>0.19333333333333333</c:v>
+                  <c:v>162</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>0.19347222222222224</c:v>
+                  <c:v>163</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>0.38418981481481485</c:v>
+                  <c:v>164</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>0.48674768518518513</c:v>
+                  <c:v>165</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>0.48690972222222223</c:v>
+                  <c:v>166</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>0.5056018518518518</c:v>
+                  <c:v>167</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>0.51905092592592594</c:v>
+                  <c:v>168</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>0.56958333333333333</c:v>
+                  <c:v>169</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>0.56976851851851851</c:v>
+                  <c:v>170</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>0.56995370370370368</c:v>
+                  <c:v>171</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>0.57006944444444441</c:v>
+                  <c:v>172</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>0.57028935185185181</c:v>
+                  <c:v>173</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>0.57046296296296295</c:v>
+                  <c:v>174</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>0.57070601851851854</c:v>
+                  <c:v>175</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>0.5708333333333333</c:v>
+                  <c:v>176</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>0.57096064814814818</c:v>
+                  <c:v>177</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>0.57943287037037039</c:v>
+                  <c:v>178</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>0.58015046296296291</c:v>
+                  <c:v>179</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>0.5816203703703704</c:v>
+                  <c:v>180</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>0.59622685185185187</c:v>
+                  <c:v>181</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>0.65368055555555549</c:v>
+                  <c:v>182</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>0.78483796296296304</c:v>
+                  <c:v>183</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>0.80710648148148145</c:v>
+                  <c:v>184</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>0.80986111111111114</c:v>
+                  <c:v>185</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>0.82570601851851855</c:v>
+                  <c:v>186</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>0.83061342592592602</c:v>
+                  <c:v>187</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>0.9003472222222223</c:v>
+                  <c:v>188</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>0.90052083333333333</c:v>
+                  <c:v>189</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>0.9008680555555556</c:v>
+                  <c:v>190</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>0.90109953703703705</c:v>
+                  <c:v>191</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>0.90143518518518517</c:v>
+                  <c:v>192</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>0.90159722222222216</c:v>
+                  <c:v>193</c:v>
                 </c:pt>
                 <c:pt idx="193">
-                  <c:v>0.90182870370370372</c:v>
+                  <c:v>194</c:v>
                 </c:pt>
                 <c:pt idx="194">
-                  <c:v>0.90210648148148154</c:v>
+                  <c:v>195</c:v>
                 </c:pt>
                 <c:pt idx="195">
-                  <c:v>0.90230324074074064</c:v>
+                  <c:v>196</c:v>
                 </c:pt>
                 <c:pt idx="196">
-                  <c:v>0.90251157407407412</c:v>
+                  <c:v>197</c:v>
                 </c:pt>
                 <c:pt idx="197">
-                  <c:v>0.90270833333333333</c:v>
+                  <c:v>198</c:v>
                 </c:pt>
                 <c:pt idx="198">
-                  <c:v>0.94300925925925927</c:v>
+                  <c:v>199</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>0.94317129629629637</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="200">
-                  <c:v>0.94328703703703709</c:v>
+                  <c:v>201</c:v>
                 </c:pt>
                 <c:pt idx="201">
-                  <c:v>0.94344907407407408</c:v>
+                  <c:v>202</c:v>
                 </c:pt>
                 <c:pt idx="202">
-                  <c:v>0.94366898148148148</c:v>
+                  <c:v>203</c:v>
                 </c:pt>
                 <c:pt idx="203">
-                  <c:v>0.94384259259259251</c:v>
+                  <c:v>204</c:v>
                 </c:pt>
                 <c:pt idx="204">
-                  <c:v>0.94408564814814822</c:v>
+                  <c:v>205</c:v>
                 </c:pt>
                 <c:pt idx="205">
-                  <c:v>0.9442476851851852</c:v>
+                  <c:v>206</c:v>
                 </c:pt>
                 <c:pt idx="206">
-                  <c:v>0.94446759259259261</c:v>
+                  <c:v>207</c:v>
                 </c:pt>
                 <c:pt idx="207">
-                  <c:v>0.944849537037037</c:v>
+                  <c:v>208</c:v>
                 </c:pt>
                 <c:pt idx="208">
-                  <c:v>0.94502314814814825</c:v>
+                  <c:v>209</c:v>
                 </c:pt>
                 <c:pt idx="209">
-                  <c:v>0.94530092592592585</c:v>
+                  <c:v>210</c:v>
                 </c:pt>
                 <c:pt idx="210">
-                  <c:v>0.94569444444444439</c:v>
+                  <c:v>211</c:v>
                 </c:pt>
                 <c:pt idx="211">
-                  <c:v>6.0185185185185177E-3</c:v>
+                  <c:v>212</c:v>
                 </c:pt>
                 <c:pt idx="212">
-                  <c:v>2.1238425925925924E-2</c:v>
+                  <c:v>213</c:v>
                 </c:pt>
                 <c:pt idx="213">
-                  <c:v>5.1377314814814813E-2</c:v>
+                  <c:v>214</c:v>
                 </c:pt>
                 <c:pt idx="214">
-                  <c:v>0.123125</c:v>
+                  <c:v>215</c:v>
                 </c:pt>
                 <c:pt idx="215">
-                  <c:v>0.46109953703703704</c:v>
+                  <c:v>216</c:v>
                 </c:pt>
                 <c:pt idx="216">
-                  <c:v>0.46124999999999999</c:v>
+                  <c:v>217</c:v>
                 </c:pt>
                 <c:pt idx="217">
-                  <c:v>0.46953703703703703</c:v>
+                  <c:v>218</c:v>
                 </c:pt>
                 <c:pt idx="218">
-                  <c:v>0.48846064814814816</c:v>
+                  <c:v>219</c:v>
                 </c:pt>
                 <c:pt idx="219">
-                  <c:v>0.49768518518518517</c:v>
+                  <c:v>220</c:v>
                 </c:pt>
                 <c:pt idx="220">
-                  <c:v>0.49788194444444445</c:v>
+                  <c:v>221</c:v>
                 </c:pt>
                 <c:pt idx="221">
-                  <c:v>0.49866898148148148</c:v>
+                  <c:v>222</c:v>
                 </c:pt>
                 <c:pt idx="222">
-                  <c:v>0.58253472222222225</c:v>
+                  <c:v>223</c:v>
                 </c:pt>
                 <c:pt idx="223">
-                  <c:v>0.80964120370370374</c:v>
+                  <c:v>224</c:v>
                 </c:pt>
                 <c:pt idx="224">
-                  <c:v>0.81004629629629632</c:v>
+                  <c:v>225</c:v>
                 </c:pt>
                 <c:pt idx="225">
-                  <c:v>0.81076388888888884</c:v>
+                  <c:v>226</c:v>
                 </c:pt>
                 <c:pt idx="226">
-                  <c:v>0.93226851851851855</c:v>
+                  <c:v>227</c:v>
                 </c:pt>
                 <c:pt idx="227">
-                  <c:v>0.95864583333333331</c:v>
+                  <c:v>228</c:v>
                 </c:pt>
                 <c:pt idx="228">
-                  <c:v>0.97333333333333327</c:v>
+                  <c:v>229</c:v>
                 </c:pt>
                 <c:pt idx="229">
-                  <c:v>0.9735300925925926</c:v>
+                  <c:v>230</c:v>
                 </c:pt>
                 <c:pt idx="230">
-                  <c:v>0.97375</c:v>
+                  <c:v>231</c:v>
                 </c:pt>
                 <c:pt idx="231">
-                  <c:v>0.99207175925925928</c:v>
+                  <c:v>232</c:v>
                 </c:pt>
                 <c:pt idx="232">
-                  <c:v>0.18812499999999999</c:v>
+                  <c:v>233</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'results 1'!$C$2:$C$234</c:f>
+              <c:f>'results 1'!$E$3:$E$235</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>_(* #,##0.0000_);_(* \(#,##0.0000\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="233"/>
                 <c:pt idx="0">
                   <c:v>4.1289600000000002</c:v>
@@ -1526,11 +1571,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="66307968"/>
-        <c:axId val="69169152"/>
+        <c:axId val="74831744"/>
+        <c:axId val="87527424"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="66307968"/>
+        <c:axId val="74831744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1546,17 +1591,27 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="[$-F400]h:mm:ss\ AM/PM" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="in"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="69169152"/>
+        <c:txPr>
+          <a:bodyPr rot="-5400000" vert="horz"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="87527424"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="69169152"/>
+        <c:axId val="87527424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="2.4"/>
@@ -1574,7 +1629,7 @@
           </c:spPr>
         </c:majorGridlines>
         <c:minorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="#,##0.0_);\(#,##0.0\)" sourceLinked="0"/>
         <c:minorTickMark val="in"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -1586,7 +1641,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="66307968"/>
+        <c:crossAx val="74831744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.1"/>
@@ -1597,7 +1652,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1607,15 +1662,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>85726</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>104774</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>295274</xdr:colOff>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1923,2595 +1978,3302 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C234"/>
+  <dimension ref="B2:E235"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="2" t="s">
+    <row r="2" spans="2:5">
+      <c r="B2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E2" s="8" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="2">
+    <row r="3" spans="2:5">
+      <c r="B3" s="4">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2">
         <v>42363</v>
       </c>
-      <c r="B2" s="1">
+      <c r="D3" s="3">
         <v>0.90821759259259249</v>
       </c>
-      <c r="C2">
+      <c r="E3" s="5">
         <v>4.1289600000000002</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="2">
+    <row r="4" spans="2:5">
+      <c r="B4" s="4">
+        <v>2</v>
+      </c>
+      <c r="C4" s="2">
         <v>42363</v>
       </c>
-      <c r="B3" s="1">
+      <c r="D4" s="3">
         <v>0.92478009259259253</v>
       </c>
-      <c r="C3">
+      <c r="E4" s="5">
         <v>4.15008</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="2">
+    <row r="5" spans="2:5">
+      <c r="B5" s="4">
+        <v>3</v>
+      </c>
+      <c r="C5" s="2">
         <v>42363</v>
       </c>
-      <c r="B4" s="1">
+      <c r="D5" s="3">
         <v>0.98675925925925922</v>
       </c>
-      <c r="C4">
+      <c r="E5" s="5">
         <v>4.1395200000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="2">
+    <row r="6" spans="2:5">
+      <c r="B6" s="4">
+        <v>4</v>
+      </c>
+      <c r="C6" s="2">
         <v>42363</v>
       </c>
-      <c r="B5" s="1">
+      <c r="D6" s="3">
         <v>0.98996527777777776</v>
       </c>
-      <c r="C5">
+      <c r="E6" s="5">
         <v>4.1395200000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="2">
+    <row r="7" spans="2:5">
+      <c r="B7" s="4">
+        <v>5</v>
+      </c>
+      <c r="C7" s="2">
         <v>42364</v>
       </c>
-      <c r="B6" s="1">
+      <c r="D7" s="3">
         <v>0.48020833333333335</v>
       </c>
-      <c r="C6">
+      <c r="E7" s="5">
         <v>4.1078400000000004</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="2">
+    <row r="8" spans="2:5">
+      <c r="B8" s="4">
+        <v>6</v>
+      </c>
+      <c r="C8" s="2">
         <v>42364</v>
       </c>
-      <c r="B7" s="1">
+      <c r="D8" s="3">
         <v>0.49621527777777774</v>
       </c>
-      <c r="C7">
+      <c r="E8" s="5">
         <v>4.0867199999999997</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="2">
+    <row r="9" spans="2:5">
+      <c r="B9" s="4">
+        <v>7</v>
+      </c>
+      <c r="C9" s="2">
         <v>42364</v>
       </c>
-      <c r="B8" s="1">
+      <c r="D9" s="3">
         <v>0.49743055555555554</v>
       </c>
-      <c r="C8">
+      <c r="E9" s="5">
         <v>4.0444800000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="2">
+    <row r="10" spans="2:5">
+      <c r="B10" s="4">
+        <v>8</v>
+      </c>
+      <c r="C10" s="2">
         <v>42364</v>
       </c>
-      <c r="B9" s="1">
+      <c r="D10" s="3">
         <v>0.49768518518518517</v>
       </c>
-      <c r="C9">
+      <c r="E10" s="5">
         <v>4.0444800000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="2">
+    <row r="11" spans="2:5">
+      <c r="B11" s="4">
+        <v>9</v>
+      </c>
+      <c r="C11" s="2">
         <v>42364</v>
       </c>
-      <c r="B10" s="1">
+      <c r="D11" s="3">
         <v>0.49859953703703702</v>
       </c>
-      <c r="C10">
+      <c r="E11" s="5">
         <v>4.0444800000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="2">
+    <row r="12" spans="2:5">
+      <c r="B12" s="4">
+        <v>10</v>
+      </c>
+      <c r="C12" s="2">
         <v>42364</v>
       </c>
-      <c r="B11" s="1">
+      <c r="D12" s="3">
         <v>0.49982638888888892</v>
       </c>
-      <c r="C11">
+      <c r="E12" s="5">
         <v>4.0444800000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="2">
+    <row r="13" spans="2:5">
+      <c r="B13" s="4">
+        <v>11</v>
+      </c>
+      <c r="C13" s="2">
         <v>42364</v>
       </c>
-      <c r="B12" s="1">
+      <c r="D13" s="3">
         <v>0.55092592592592593</v>
       </c>
-      <c r="C12">
+      <c r="E13" s="5">
         <v>4.0233600000000003</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="2">
+    <row r="14" spans="2:5">
+      <c r="B14" s="4">
+        <v>12</v>
+      </c>
+      <c r="C14" s="2">
         <v>42364</v>
       </c>
-      <c r="B13" s="1">
+      <c r="D14" s="3">
         <v>0.64833333333333332</v>
       </c>
-      <c r="C13">
+      <c r="E14" s="5">
         <v>4.0339200000000002</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="2">
+    <row r="15" spans="2:5">
+      <c r="B15" s="4">
+        <v>13</v>
+      </c>
+      <c r="C15" s="2">
         <v>42364</v>
       </c>
-      <c r="B14" s="1">
+      <c r="D15" s="3">
         <v>0.68896990740740749</v>
       </c>
-      <c r="C14">
+      <c r="E15" s="5">
         <v>4.0233600000000003</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="2">
+    <row r="16" spans="2:5">
+      <c r="B16" s="4">
+        <v>14</v>
+      </c>
+      <c r="C16" s="2">
         <v>42364</v>
       </c>
-      <c r="B15" s="1">
+      <c r="D16" s="3">
         <v>0.74380787037037033</v>
       </c>
-      <c r="C15">
+      <c r="E16" s="5">
         <v>4.0233600000000003</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="2">
+    <row r="17" spans="2:5">
+      <c r="B17" s="4">
+        <v>15</v>
+      </c>
+      <c r="C17" s="2">
         <v>42364</v>
       </c>
-      <c r="B16" s="1">
+      <c r="D17" s="3">
         <v>0.74421296296296291</v>
       </c>
-      <c r="C16">
+      <c r="E17" s="5">
         <v>4.0233600000000003</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="2">
+    <row r="18" spans="2:5">
+      <c r="B18" s="4">
+        <v>16</v>
+      </c>
+      <c r="C18" s="2">
         <v>42364</v>
       </c>
-      <c r="B17" s="1">
+      <c r="D18" s="3">
         <v>0.74561342592592583</v>
       </c>
-      <c r="C17">
+      <c r="E18" s="5">
         <v>4.0233600000000003</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="2">
+    <row r="19" spans="2:5">
+      <c r="B19" s="4">
+        <v>17</v>
+      </c>
+      <c r="C19" s="2">
         <v>42364</v>
       </c>
-      <c r="B18" s="1">
+      <c r="D19" s="3">
         <v>0.74597222222222215</v>
       </c>
-      <c r="C18">
+      <c r="E19" s="5">
         <v>4.0128000000000004</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="2">
+    <row r="20" spans="2:5">
+      <c r="B20" s="4">
+        <v>18</v>
+      </c>
+      <c r="C20" s="2">
         <v>42364</v>
       </c>
-      <c r="B19" s="1">
+      <c r="D20" s="3">
         <v>0.83644675925925915</v>
       </c>
-      <c r="C19">
+      <c r="E20" s="5">
         <v>4.0233600000000003</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="2">
+    <row r="21" spans="2:5">
+      <c r="B21" s="4">
+        <v>19</v>
+      </c>
+      <c r="C21" s="2">
         <v>42364</v>
       </c>
-      <c r="B20" s="1">
+      <c r="D21" s="3">
         <v>0.84047453703703701</v>
       </c>
-      <c r="C20">
+      <c r="E21" s="5">
         <v>4.0128000000000004</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="2">
+    <row r="22" spans="2:5">
+      <c r="B22" s="4">
+        <v>20</v>
+      </c>
+      <c r="C22" s="2">
         <v>42364</v>
       </c>
-      <c r="B21" s="1">
+      <c r="D22" s="3">
         <v>0.84693287037037035</v>
       </c>
-      <c r="C21">
+      <c r="E22" s="5">
         <v>4.0233600000000003</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="2">
+    <row r="23" spans="2:5">
+      <c r="B23" s="4">
+        <v>21</v>
+      </c>
+      <c r="C23" s="2">
         <v>42364</v>
       </c>
-      <c r="B22" s="1">
+      <c r="D23" s="3">
         <v>0.84712962962962957</v>
       </c>
-      <c r="C22">
+      <c r="E23" s="5">
         <v>4.0128000000000004</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="2">
+    <row r="24" spans="2:5">
+      <c r="B24" s="4">
+        <v>22</v>
+      </c>
+      <c r="C24" s="2">
         <v>42364</v>
       </c>
-      <c r="B23" s="1">
+      <c r="D24" s="3">
         <v>0.85248842592592589</v>
       </c>
-      <c r="C23">
+      <c r="E24" s="5">
         <v>4.0128000000000004</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="2">
+    <row r="25" spans="2:5">
+      <c r="B25" s="4">
+        <v>23</v>
+      </c>
+      <c r="C25" s="2">
         <v>42364</v>
       </c>
-      <c r="B24" s="1">
+      <c r="D25" s="3">
         <v>0.85380787037037031</v>
       </c>
-      <c r="C24">
+      <c r="E25" s="5">
         <v>4.0128000000000004</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="2">
+    <row r="26" spans="2:5">
+      <c r="B26" s="4">
+        <v>24</v>
+      </c>
+      <c r="C26" s="2">
         <v>42364</v>
       </c>
-      <c r="B25" s="1">
+      <c r="D26" s="3">
         <v>0.87866898148148154</v>
       </c>
-      <c r="C25">
+      <c r="E26" s="5">
         <v>4.0128000000000004</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="2">
+    <row r="27" spans="2:5">
+      <c r="B27" s="4">
+        <v>25</v>
+      </c>
+      <c r="C27" s="2">
         <v>42364</v>
       </c>
-      <c r="B26" s="1">
+      <c r="D27" s="3">
         <v>0.90976851851851848</v>
       </c>
-      <c r="C26">
+      <c r="E27" s="5">
         <v>4.0128000000000004</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="2">
+    <row r="28" spans="2:5">
+      <c r="B28" s="4">
+        <v>26</v>
+      </c>
+      <c r="C28" s="2">
         <v>42364</v>
       </c>
-      <c r="B27" s="1">
+      <c r="D28" s="3">
         <v>0.9874074074074074</v>
       </c>
-      <c r="C27">
+      <c r="E28" s="5">
         <v>4.0128000000000004</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="2">
+    <row r="29" spans="2:5">
+      <c r="B29" s="4">
+        <v>27</v>
+      </c>
+      <c r="C29" s="2">
         <v>42365</v>
       </c>
-      <c r="B28" s="1">
+      <c r="D29" s="3">
         <v>0.15857638888888889</v>
       </c>
-      <c r="C28">
+      <c r="E29" s="5">
         <v>4.0022399999999996</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="2">
+    <row r="30" spans="2:5">
+      <c r="B30" s="4">
+        <v>28</v>
+      </c>
+      <c r="C30" s="2">
         <v>42365</v>
       </c>
-      <c r="B29" s="1">
+      <c r="D30" s="3">
         <v>0.50659722222222225</v>
       </c>
-      <c r="C29">
+      <c r="E30" s="5">
         <v>3.9388800000000002</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="2">
+    <row r="31" spans="2:5">
+      <c r="B31" s="4">
+        <v>29</v>
+      </c>
+      <c r="C31" s="2">
         <v>42365</v>
       </c>
-      <c r="B30" s="1">
+      <c r="D31" s="3">
         <v>0.50877314814814811</v>
       </c>
-      <c r="C30">
+      <c r="E31" s="5">
         <v>3.9283199999999998</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="2">
+    <row r="32" spans="2:5">
+      <c r="B32" s="4">
+        <v>30</v>
+      </c>
+      <c r="C32" s="2">
         <v>42365</v>
       </c>
-      <c r="B31" s="1">
+      <c r="D32" s="3">
         <v>0.54200231481481487</v>
       </c>
-      <c r="C31">
+      <c r="E32" s="5">
         <v>3.9283199999999998</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="2">
+    <row r="33" spans="2:5">
+      <c r="B33" s="4">
+        <v>31</v>
+      </c>
+      <c r="C33" s="2">
         <v>42365</v>
       </c>
-      <c r="B32" s="1">
+      <c r="D33" s="3">
         <v>0.54217592592592589</v>
       </c>
-      <c r="C32">
+      <c r="E33" s="5">
         <v>3.9283199999999998</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="2">
+    <row r="34" spans="2:5">
+      <c r="B34" s="4">
+        <v>32</v>
+      </c>
+      <c r="C34" s="2">
         <v>42365</v>
       </c>
-      <c r="B33" s="1">
+      <c r="D34" s="3">
         <v>0.54230324074074077</v>
       </c>
-      <c r="C33">
+      <c r="E34" s="5">
         <v>3.9177599999999999</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
-      <c r="A34" s="2">
+    <row r="35" spans="2:5">
+      <c r="B35" s="4">
+        <v>33</v>
+      </c>
+      <c r="C35" s="2">
         <v>42365</v>
       </c>
-      <c r="B34" s="1">
+      <c r="D35" s="3">
         <v>0.54284722222222226</v>
       </c>
-      <c r="C34">
+      <c r="E35" s="5">
         <v>3.9283199999999998</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
-      <c r="A35" s="2">
+    <row r="36" spans="2:5">
+      <c r="B36" s="4">
+        <v>34</v>
+      </c>
+      <c r="C36" s="2">
         <v>42365</v>
       </c>
-      <c r="B35" s="1">
+      <c r="D36" s="3">
         <v>0.55708333333333326</v>
       </c>
-      <c r="C35">
+      <c r="E36" s="5">
         <v>3.9283199999999998</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
-      <c r="A36" s="2">
+    <row r="37" spans="2:5">
+      <c r="B37" s="4">
+        <v>35</v>
+      </c>
+      <c r="C37" s="2">
         <v>42365</v>
       </c>
-      <c r="B36" s="1">
+      <c r="D37" s="3">
         <v>0.56328703703703698</v>
       </c>
-      <c r="C36">
+      <c r="E37" s="5">
         <v>3.9283199999999998</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
-      <c r="A37" s="2">
+    <row r="38" spans="2:5">
+      <c r="B38" s="4">
+        <v>36</v>
+      </c>
+      <c r="C38" s="2">
         <v>42365</v>
       </c>
-      <c r="B37" s="1">
+      <c r="D38" s="3">
         <v>0.5635648148148148</v>
       </c>
-      <c r="C37">
+      <c r="E38" s="5">
         <v>3.9283199999999998</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
-      <c r="A38" s="2">
+    <row r="39" spans="2:5">
+      <c r="B39" s="4">
+        <v>37</v>
+      </c>
+      <c r="C39" s="2">
         <v>42365</v>
       </c>
-      <c r="B38" s="1">
+      <c r="D39" s="3">
         <v>0.58445601851851847</v>
       </c>
-      <c r="C38">
+      <c r="E39" s="5">
         <v>3.8966400000000001</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
-      <c r="A39" s="2">
+    <row r="40" spans="2:5">
+      <c r="B40" s="4">
+        <v>38</v>
+      </c>
+      <c r="C40" s="2">
         <v>42365</v>
       </c>
-      <c r="B39" s="1">
+      <c r="D40" s="3">
         <v>0.58445601851851847</v>
       </c>
-      <c r="C39">
+      <c r="E40" s="5">
         <v>3.9283199999999998</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
-      <c r="A40" s="2">
+    <row r="41" spans="2:5">
+      <c r="B41" s="4">
+        <v>39</v>
+      </c>
+      <c r="C41" s="2">
         <v>42365</v>
       </c>
-      <c r="B40" s="1">
+      <c r="D41" s="3">
         <v>0.58629629629629632</v>
       </c>
-      <c r="C40">
+      <c r="E41" s="5">
         <v>3.9072</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
-      <c r="A41" s="2">
+    <row r="42" spans="2:5">
+      <c r="B42" s="4">
+        <v>40</v>
+      </c>
+      <c r="C42" s="2">
         <v>42365</v>
       </c>
-      <c r="B41" s="1">
+      <c r="D42" s="3">
         <v>0.58658564814814818</v>
       </c>
-      <c r="C41">
+      <c r="E42" s="5">
         <v>3.9072</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
-      <c r="A42" s="2">
+    <row r="43" spans="2:5">
+      <c r="B43" s="4">
+        <v>41</v>
+      </c>
+      <c r="C43" s="2">
         <v>42365</v>
       </c>
-      <c r="B42" s="1">
+      <c r="D43" s="3">
         <v>0.6320486111111111</v>
       </c>
-      <c r="C42">
+      <c r="E43" s="5">
         <v>3.9177599999999999</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
-      <c r="A43" s="2">
+    <row r="44" spans="2:5">
+      <c r="B44" s="4">
+        <v>42</v>
+      </c>
+      <c r="C44" s="2">
         <v>42365</v>
       </c>
-      <c r="B43" s="1">
+      <c r="D44" s="3">
         <v>0.64870370370370367</v>
       </c>
-      <c r="C43">
+      <c r="E44" s="5">
         <v>3.9072</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
-      <c r="A44" s="2">
+    <row r="45" spans="2:5">
+      <c r="B45" s="4">
+        <v>43</v>
+      </c>
+      <c r="C45" s="2">
         <v>42365</v>
       </c>
-      <c r="B44" s="1">
+      <c r="D45" s="3">
         <v>0.65318287037037037</v>
       </c>
-      <c r="C44">
+      <c r="E45" s="5">
         <v>3.9072</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
-      <c r="A45" s="2">
+    <row r="46" spans="2:5">
+      <c r="B46" s="4">
+        <v>44</v>
+      </c>
+      <c r="C46" s="2">
         <v>42365</v>
       </c>
-      <c r="B45" s="1">
+      <c r="D46" s="3">
         <v>0.65431712962962962</v>
       </c>
-      <c r="C45">
+      <c r="E46" s="5">
         <v>3.9072</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
-      <c r="A46" s="2">
+    <row r="47" spans="2:5">
+      <c r="B47" s="4">
+        <v>45</v>
+      </c>
+      <c r="C47" s="2">
         <v>42365</v>
       </c>
-      <c r="B46" s="1">
+      <c r="D47" s="3">
         <v>0.65460648148148148</v>
       </c>
-      <c r="C46">
+      <c r="E47" s="5">
         <v>3.9072</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
-      <c r="A47" s="2">
+    <row r="48" spans="2:5">
+      <c r="B48" s="4">
+        <v>46</v>
+      </c>
+      <c r="C48" s="2">
         <v>42365</v>
       </c>
-      <c r="B47" s="1">
+      <c r="D48" s="3">
         <v>0.65495370370370376</v>
       </c>
-      <c r="C47">
+      <c r="E48" s="5">
         <v>3.9072</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
-      <c r="A48" s="2">
+    <row r="49" spans="2:5">
+      <c r="B49" s="4">
+        <v>47</v>
+      </c>
+      <c r="C49" s="2">
         <v>42365</v>
       </c>
-      <c r="B48" s="1">
+      <c r="D49" s="3">
         <v>0.65516203703703701</v>
       </c>
-      <c r="C48">
+      <c r="E49" s="5">
         <v>3.8966400000000001</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
-      <c r="A49" s="2">
+    <row r="50" spans="2:5">
+      <c r="B50" s="4">
+        <v>48</v>
+      </c>
+      <c r="C50" s="2">
         <v>42365</v>
       </c>
-      <c r="B49" s="1">
+      <c r="D50" s="3">
         <v>0.65537037037037038</v>
       </c>
-      <c r="C49">
+      <c r="E50" s="5">
         <v>3.8966400000000001</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
-      <c r="A50" s="2">
+    <row r="51" spans="2:5">
+      <c r="B51" s="4">
+        <v>49</v>
+      </c>
+      <c r="C51" s="2">
         <v>42365</v>
       </c>
-      <c r="B50" s="1">
+      <c r="D51" s="3">
         <v>0.65554398148148152</v>
       </c>
-      <c r="C50">
+      <c r="E51" s="5">
         <v>3.8966400000000001</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
-      <c r="A51" s="2">
+    <row r="52" spans="2:5">
+      <c r="B52" s="4">
+        <v>50</v>
+      </c>
+      <c r="C52" s="2">
         <v>42365</v>
       </c>
-      <c r="B51" s="1">
+      <c r="D52" s="3">
         <v>0.78802083333333339</v>
       </c>
-      <c r="C51">
+      <c r="E52" s="5">
         <v>3.8966400000000001</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
-      <c r="A52" s="2">
+    <row r="53" spans="2:5">
+      <c r="B53" s="4">
+        <v>51</v>
+      </c>
+      <c r="C53" s="2">
         <v>42365</v>
       </c>
-      <c r="B52" s="1">
+      <c r="D53" s="3">
         <v>0.7898842592592592</v>
       </c>
-      <c r="C52">
+      <c r="E53" s="5">
         <v>3.8860800000000002</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
-      <c r="A53" s="2">
+    <row r="54" spans="2:5">
+      <c r="B54" s="4">
+        <v>52</v>
+      </c>
+      <c r="C54" s="2">
         <v>42365</v>
       </c>
-      <c r="B53" s="1">
+      <c r="D54" s="3">
         <v>0.91557870370370376</v>
       </c>
-      <c r="C53">
+      <c r="E54" s="5">
         <v>3.8966400000000001</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
-      <c r="A54" s="2">
+    <row r="55" spans="2:5">
+      <c r="B55" s="4">
+        <v>53</v>
+      </c>
+      <c r="C55" s="2">
         <v>42365</v>
       </c>
-      <c r="B54" s="1">
+      <c r="D55" s="3">
         <v>0.92074074074074075</v>
       </c>
-      <c r="C54">
+      <c r="E55" s="5">
         <v>3.8966400000000001</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
-      <c r="A55" s="2">
+    <row r="56" spans="2:5">
+      <c r="B56" s="4">
+        <v>54</v>
+      </c>
+      <c r="C56" s="2">
         <v>42365</v>
       </c>
-      <c r="B55" s="1">
+      <c r="D56" s="3">
         <v>0.93745370370370373</v>
       </c>
-      <c r="C55">
+      <c r="E56" s="5">
         <v>3.8966400000000001</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
-      <c r="A56" s="2">
+    <row r="57" spans="2:5">
+      <c r="B57" s="4">
+        <v>55</v>
+      </c>
+      <c r="C57" s="2">
         <v>42365</v>
       </c>
-      <c r="B56" s="1">
+      <c r="D57" s="3">
         <v>0.94237268518518524</v>
       </c>
-      <c r="C56">
+      <c r="E57" s="5">
         <v>3.8966400000000001</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
-      <c r="A57" s="2">
+    <row r="58" spans="2:5">
+      <c r="B58" s="4">
+        <v>56</v>
+      </c>
+      <c r="C58" s="2">
         <v>42366</v>
       </c>
-      <c r="B57" s="1">
+      <c r="D58" s="3">
         <v>6.7372685185185188E-2</v>
       </c>
-      <c r="C57">
+      <c r="E58" s="5">
         <v>3.8860800000000002</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
-      <c r="A58" s="2">
+    <row r="59" spans="2:5">
+      <c r="B59" s="4">
+        <v>57</v>
+      </c>
+      <c r="C59" s="2">
         <v>42366</v>
       </c>
-      <c r="B58" s="1">
+      <c r="D59" s="3">
         <v>0.43472222222222223</v>
       </c>
-      <c r="C58">
+      <c r="E59" s="5">
         <v>3.8332799999999998</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
-      <c r="A59" s="2">
+    <row r="60" spans="2:5">
+      <c r="B60" s="4">
+        <v>58</v>
+      </c>
+      <c r="C60" s="2">
         <v>42366</v>
       </c>
-      <c r="B59" s="1">
+      <c r="D60" s="3">
         <v>0.43569444444444444</v>
       </c>
-      <c r="C59">
+      <c r="E60" s="5">
         <v>3.8227199999999999</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
-      <c r="A60" s="2">
+    <row r="61" spans="2:5">
+      <c r="B61" s="4">
+        <v>59</v>
+      </c>
+      <c r="C61" s="2">
         <v>42366</v>
       </c>
-      <c r="B60" s="1">
+      <c r="D61" s="3">
         <v>0.43648148148148147</v>
       </c>
-      <c r="C60">
+      <c r="E61" s="5">
         <v>3.8227199999999999</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
-      <c r="A61" s="2">
+    <row r="62" spans="2:5">
+      <c r="B62" s="4">
+        <v>60</v>
+      </c>
+      <c r="C62" s="2">
         <v>42366</v>
       </c>
-      <c r="B61" s="1">
+      <c r="D62" s="3">
         <v>0.44494212962962965</v>
       </c>
-      <c r="C61">
+      <c r="E62" s="5">
         <v>3.8332799999999998</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
-      <c r="A62" s="2">
+    <row r="63" spans="2:5">
+      <c r="B63" s="4">
+        <v>61</v>
+      </c>
+      <c r="C63" s="2">
         <v>42366</v>
       </c>
-      <c r="B62" s="1">
+      <c r="D63" s="3">
         <v>0.44569444444444445</v>
       </c>
-      <c r="C62">
+      <c r="E63" s="5">
         <v>3.8227199999999999</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
-      <c r="A63" s="2">
+    <row r="64" spans="2:5">
+      <c r="B64" s="4">
+        <v>62</v>
+      </c>
+      <c r="C64" s="2">
         <v>42366</v>
       </c>
-      <c r="B63" s="1">
+      <c r="D64" s="3">
         <v>0.65668981481481481</v>
       </c>
-      <c r="C63">
+      <c r="E64" s="5">
         <v>3.8332799999999998</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
-      <c r="A64" s="2">
+    <row r="65" spans="2:5">
+      <c r="B65" s="4">
+        <v>63</v>
+      </c>
+      <c r="C65" s="2">
         <v>42366</v>
       </c>
-      <c r="B64" s="1">
+      <c r="D65" s="3">
         <v>0.67038194444444443</v>
       </c>
-      <c r="C64">
+      <c r="E65" s="5">
         <v>3.8227199999999999</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
-      <c r="A65" s="2">
+    <row r="66" spans="2:5">
+      <c r="B66" s="4">
+        <v>64</v>
+      </c>
+      <c r="C66" s="2">
         <v>42366</v>
       </c>
-      <c r="B65" s="1">
+      <c r="D66" s="3">
         <v>0.68290509259259258</v>
       </c>
-      <c r="C65">
+      <c r="E66" s="5">
         <v>3.8227199999999999</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
-      <c r="A66" s="2">
+    <row r="67" spans="2:5">
+      <c r="B67" s="4">
+        <v>65</v>
+      </c>
+      <c r="C67" s="2">
         <v>42366</v>
       </c>
-      <c r="B66" s="1">
+      <c r="D67" s="3">
         <v>0.76023148148148145</v>
       </c>
-      <c r="C66">
+      <c r="E67" s="5">
         <v>3.7065600000000001</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
-      <c r="A67" s="2">
+    <row r="68" spans="2:5">
+      <c r="B68" s="4">
+        <v>66</v>
+      </c>
+      <c r="C68" s="2">
         <v>42366</v>
       </c>
-      <c r="B67" s="1">
+      <c r="D68" s="3">
         <v>0.76043981481481471</v>
       </c>
-      <c r="C67">
+      <c r="E68" s="5">
         <v>3.7065600000000001</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
-      <c r="A68" s="2">
+    <row r="69" spans="2:5">
+      <c r="B69" s="4">
+        <v>67</v>
+      </c>
+      <c r="C69" s="2">
         <v>42366</v>
       </c>
-      <c r="B68" s="1">
+      <c r="D69" s="3">
         <v>0.76061342592592596</v>
       </c>
-      <c r="C68">
+      <c r="E69" s="5">
         <v>3.7065600000000001</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
-      <c r="A69" s="2">
+    <row r="70" spans="2:5">
+      <c r="B70" s="4">
+        <v>68</v>
+      </c>
+      <c r="C70" s="2">
         <v>42366</v>
       </c>
-      <c r="B69" s="1">
+      <c r="D70" s="3">
         <v>0.80017361111111107</v>
       </c>
-      <c r="C69">
+      <c r="E70" s="5">
         <v>3.71712</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
-      <c r="A70" s="2">
+    <row r="71" spans="2:5">
+      <c r="B71" s="4">
+        <v>69</v>
+      </c>
+      <c r="C71" s="2">
         <v>42366</v>
       </c>
-      <c r="B70" s="1">
+      <c r="D71" s="3">
         <v>0.90063657407407405</v>
       </c>
-      <c r="C70">
+      <c r="E71" s="5">
         <v>3.71712</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
-      <c r="A71" s="2">
+    <row r="72" spans="2:5">
+      <c r="B72" s="4">
+        <v>70</v>
+      </c>
+      <c r="C72" s="2">
         <v>42366</v>
       </c>
-      <c r="B71" s="1">
+      <c r="D72" s="3">
         <v>0.90125</v>
       </c>
-      <c r="C71">
+      <c r="E72" s="5">
         <v>3.7065600000000001</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
-      <c r="A72" s="2">
+    <row r="73" spans="2:5">
+      <c r="B73" s="4">
+        <v>71</v>
+      </c>
+      <c r="C73" s="2">
         <v>42366</v>
       </c>
-      <c r="B72" s="1">
+      <c r="D73" s="3">
         <v>0.90153935185185186</v>
       </c>
-      <c r="C72">
+      <c r="E73" s="5">
         <v>3.7065600000000001</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
-      <c r="A73" s="2">
+    <row r="74" spans="2:5">
+      <c r="B74" s="4">
+        <v>72</v>
+      </c>
+      <c r="C74" s="2">
         <v>42366</v>
       </c>
-      <c r="B73" s="1">
+      <c r="D74" s="3">
         <v>0.91076388888888893</v>
       </c>
-      <c r="C73">
+      <c r="E74" s="5">
         <v>3.71712</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
-      <c r="A74" s="2">
+    <row r="75" spans="2:5">
+      <c r="B75" s="4">
+        <v>73</v>
+      </c>
+      <c r="C75" s="2">
         <v>42366</v>
       </c>
-      <c r="B74" s="1">
+      <c r="D75" s="3">
         <v>0.91114583333333332</v>
       </c>
-      <c r="C74">
+      <c r="E75" s="5">
         <v>3.71712</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
-      <c r="A75" s="2">
+    <row r="76" spans="2:5">
+      <c r="B76" s="4">
+        <v>74</v>
+      </c>
+      <c r="C76" s="2">
         <v>42366</v>
       </c>
-      <c r="B75" s="1">
+      <c r="D76" s="3">
         <v>0.91297453703703713</v>
       </c>
-      <c r="C75">
+      <c r="E76" s="5">
         <v>3.7065600000000001</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
-      <c r="A76" s="2">
+    <row r="77" spans="2:5">
+      <c r="B77" s="4">
+        <v>75</v>
+      </c>
+      <c r="C77" s="2">
         <v>42366</v>
       </c>
-      <c r="B76" s="1">
+      <c r="D77" s="3">
         <v>0.95065972222222228</v>
       </c>
-      <c r="C76">
+      <c r="E77" s="5">
         <v>3.71712</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
-      <c r="A77" s="2">
+    <row r="78" spans="2:5">
+      <c r="B78" s="4">
+        <v>76</v>
+      </c>
+      <c r="C78" s="2">
         <v>42366</v>
       </c>
-      <c r="B77" s="1">
+      <c r="D78" s="3">
         <v>0.97071759259259249</v>
       </c>
-      <c r="C77">
+      <c r="E78" s="5">
         <v>3.7065600000000001</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
-      <c r="A78" s="2">
-        <v>42367</v>
-      </c>
-      <c r="B78" s="1">
+    <row r="79" spans="2:5">
+      <c r="B79" s="4">
+        <v>77</v>
+      </c>
+      <c r="C79" s="2">
+        <v>42367</v>
+      </c>
+      <c r="D79" s="3">
         <v>1.7361111111111112E-2</v>
       </c>
-      <c r="C78">
+      <c r="E79" s="5">
         <v>3.71712</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
-      <c r="A79" s="2">
-        <v>42367</v>
-      </c>
-      <c r="B79" s="1">
+    <row r="80" spans="2:5">
+      <c r="B80" s="4">
+        <v>78</v>
+      </c>
+      <c r="C80" s="2">
+        <v>42367</v>
+      </c>
+      <c r="D80" s="3">
         <v>0.37662037037037038</v>
       </c>
-      <c r="C79">
+      <c r="E80" s="5">
         <v>3.7065600000000001</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
-      <c r="A80" s="2">
-        <v>42367</v>
-      </c>
-      <c r="B80" s="1">
+    <row r="81" spans="2:5">
+      <c r="B81" s="4">
+        <v>79</v>
+      </c>
+      <c r="C81" s="2">
+        <v>42367</v>
+      </c>
+      <c r="D81" s="3">
         <v>0.3913194444444445</v>
       </c>
-      <c r="C80">
+      <c r="E81" s="5">
         <v>3.7065600000000001</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
-      <c r="A81" s="2">
-        <v>42367</v>
-      </c>
-      <c r="B81" s="1">
+    <row r="82" spans="2:5">
+      <c r="B82" s="4">
+        <v>80</v>
+      </c>
+      <c r="C82" s="2">
+        <v>42367</v>
+      </c>
+      <c r="D82" s="3">
         <v>0.39894675925925926</v>
       </c>
-      <c r="C81">
+      <c r="E82" s="5">
         <v>3.7065600000000001</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
-      <c r="A82" s="2">
-        <v>42367</v>
-      </c>
-      <c r="B82" s="1">
+    <row r="83" spans="2:5">
+      <c r="B83" s="4">
+        <v>81</v>
+      </c>
+      <c r="C83" s="2">
+        <v>42367</v>
+      </c>
+      <c r="D83" s="3">
         <v>0.62702546296296291</v>
       </c>
-      <c r="C82">
+      <c r="E83" s="5">
         <v>3.8860800000000002</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
-      <c r="A83" s="2">
-        <v>42367</v>
-      </c>
-      <c r="B83" s="1">
+    <row r="84" spans="2:5">
+      <c r="B84" s="4">
+        <v>82</v>
+      </c>
+      <c r="C84" s="2">
+        <v>42367</v>
+      </c>
+      <c r="D84" s="3">
         <v>0.62831018518518522</v>
       </c>
-      <c r="C83">
+      <c r="E84" s="5">
         <v>3.9283199999999998</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
-      <c r="A84" s="2">
-        <v>42367</v>
-      </c>
-      <c r="B84" s="1">
+    <row r="85" spans="2:5">
+      <c r="B85" s="4">
+        <v>83</v>
+      </c>
+      <c r="C85" s="2">
+        <v>42367</v>
+      </c>
+      <c r="D85" s="3">
         <v>0.65743055555555563</v>
       </c>
-      <c r="C84">
+      <c r="E85" s="5">
         <v>3.7276799999999999</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
-      <c r="A85" s="2">
-        <v>42367</v>
-      </c>
-      <c r="B85" s="1">
+    <row r="86" spans="2:5">
+      <c r="B86" s="4">
+        <v>84</v>
+      </c>
+      <c r="C86" s="2">
+        <v>42367</v>
+      </c>
+      <c r="D86" s="3">
         <v>0.65790509259259256</v>
       </c>
-      <c r="C85">
+      <c r="E86" s="5">
         <v>3.9177599999999999</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
-      <c r="A86" s="2">
-        <v>42367</v>
-      </c>
-      <c r="B86" s="1">
+    <row r="87" spans="2:5">
+      <c r="B87" s="4">
+        <v>85</v>
+      </c>
+      <c r="C87" s="2">
+        <v>42367</v>
+      </c>
+      <c r="D87" s="3">
         <v>0.65809027777777784</v>
       </c>
-      <c r="C86">
+      <c r="E87" s="5">
         <v>3.9283199999999998</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
-      <c r="A87" s="2">
-        <v>42367</v>
-      </c>
-      <c r="B87" s="1">
+    <row r="88" spans="2:5">
+      <c r="B88" s="4">
+        <v>86</v>
+      </c>
+      <c r="C88" s="2">
+        <v>42367</v>
+      </c>
+      <c r="D88" s="3">
         <v>0.65826388888888887</v>
       </c>
-      <c r="C87">
+      <c r="E88" s="5">
         <v>3.9388800000000002</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
-      <c r="A88" s="2">
-        <v>42367</v>
-      </c>
-      <c r="B88" s="1">
+    <row r="89" spans="2:5">
+      <c r="B89" s="4">
+        <v>87</v>
+      </c>
+      <c r="C89" s="2">
+        <v>42367</v>
+      </c>
+      <c r="D89" s="3">
         <v>0.66459490740740745</v>
       </c>
-      <c r="C88">
+      <c r="E89" s="5">
         <v>3.9283199999999998</v>
       </c>
     </row>
-    <row r="89" spans="1:3">
-      <c r="A89" s="2">
-        <v>42367</v>
-      </c>
-      <c r="B89" s="1">
+    <row r="90" spans="2:5">
+      <c r="B90" s="4">
+        <v>88</v>
+      </c>
+      <c r="C90" s="2">
+        <v>42367</v>
+      </c>
+      <c r="D90" s="3">
         <v>0.66659722222222217</v>
       </c>
-      <c r="C89">
+      <c r="E90" s="5">
         <v>3.7488000000000001</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
-      <c r="A90" s="2">
-        <v>42367</v>
-      </c>
-      <c r="B90" s="1">
+    <row r="91" spans="2:5">
+      <c r="B91" s="4">
+        <v>89</v>
+      </c>
+      <c r="C91" s="2">
+        <v>42367</v>
+      </c>
+      <c r="D91" s="3">
         <v>0.666875</v>
       </c>
-      <c r="C90">
+      <c r="E91" s="5">
         <v>3.7382399999999998</v>
       </c>
     </row>
-    <row r="91" spans="1:3">
-      <c r="A91" s="2">
-        <v>42367</v>
-      </c>
-      <c r="B91" s="1">
+    <row r="92" spans="2:5">
+      <c r="B92" s="4">
+        <v>90</v>
+      </c>
+      <c r="C92" s="2">
+        <v>42367</v>
+      </c>
+      <c r="D92" s="3">
         <v>0.66778935185185195</v>
       </c>
-      <c r="C91">
+      <c r="E92" s="5">
         <v>3.7382399999999998</v>
       </c>
     </row>
-    <row r="92" spans="1:3">
-      <c r="A92" s="2">
-        <v>42367</v>
-      </c>
-      <c r="B92" s="1">
+    <row r="93" spans="2:5">
+      <c r="B93" s="4">
+        <v>91</v>
+      </c>
+      <c r="C93" s="2">
+        <v>42367</v>
+      </c>
+      <c r="D93" s="3">
         <v>0.66856481481481478</v>
       </c>
-      <c r="C92">
+      <c r="E93" s="5">
         <v>3.7382399999999998</v>
       </c>
     </row>
-    <row r="93" spans="1:3">
-      <c r="A93" s="2">
-        <v>42367</v>
-      </c>
-      <c r="B93" s="1">
+    <row r="94" spans="2:5">
+      <c r="B94" s="4">
+        <v>92</v>
+      </c>
+      <c r="C94" s="2">
+        <v>42367</v>
+      </c>
+      <c r="D94" s="3">
         <v>0.6696643518518518</v>
       </c>
-      <c r="C93">
+      <c r="E94" s="5">
         <v>3.7382399999999998</v>
       </c>
     </row>
-    <row r="94" spans="1:3">
-      <c r="A94" s="2">
-        <v>42367</v>
-      </c>
-      <c r="B94" s="1">
+    <row r="95" spans="2:5">
+      <c r="B95" s="4">
+        <v>93</v>
+      </c>
+      <c r="C95" s="2">
+        <v>42367</v>
+      </c>
+      <c r="D95" s="3">
         <v>0.669988425925926</v>
       </c>
-      <c r="C94">
+      <c r="E95" s="5">
         <v>3.7382399999999998</v>
       </c>
     </row>
-    <row r="95" spans="1:3">
-      <c r="A95" s="2">
-        <v>42367</v>
-      </c>
-      <c r="B95" s="1">
+    <row r="96" spans="2:5">
+      <c r="B96" s="4">
+        <v>94</v>
+      </c>
+      <c r="C96" s="2">
+        <v>42367</v>
+      </c>
+      <c r="D96" s="3">
         <v>0.67020833333333341</v>
       </c>
-      <c r="C95">
+      <c r="E96" s="5">
         <v>3.7382399999999998</v>
       </c>
     </row>
-    <row r="96" spans="1:3">
-      <c r="A96" s="2">
-        <v>42367</v>
-      </c>
-      <c r="B96" s="1">
+    <row r="97" spans="2:5">
+      <c r="B97" s="4">
+        <v>95</v>
+      </c>
+      <c r="C97" s="2">
+        <v>42367</v>
+      </c>
+      <c r="D97" s="3">
         <v>0.67054398148148142</v>
       </c>
-      <c r="C96">
+      <c r="E97" s="5">
         <v>3.7276799999999999</v>
       </c>
     </row>
-    <row r="97" spans="1:3">
-      <c r="A97" s="2">
-        <v>42367</v>
-      </c>
-      <c r="B97" s="1">
+    <row r="98" spans="2:5">
+      <c r="B98" s="4">
+        <v>96</v>
+      </c>
+      <c r="C98" s="2">
+        <v>42367</v>
+      </c>
+      <c r="D98" s="3">
         <v>0.67086805555555562</v>
       </c>
-      <c r="C97">
+      <c r="E98" s="5">
         <v>3.7382399999999998</v>
       </c>
     </row>
-    <row r="98" spans="1:3">
-      <c r="A98" s="2">
-        <v>42367</v>
-      </c>
-      <c r="B98" s="1">
+    <row r="99" spans="2:5">
+      <c r="B99" s="4">
+        <v>97</v>
+      </c>
+      <c r="C99" s="2">
+        <v>42367</v>
+      </c>
+      <c r="D99" s="3">
         <v>0.67109953703703706</v>
       </c>
-      <c r="C98">
+      <c r="E99" s="5">
         <v>3.7276799999999999</v>
       </c>
     </row>
-    <row r="99" spans="1:3">
-      <c r="A99" s="2">
-        <v>42367</v>
-      </c>
-      <c r="B99" s="1">
+    <row r="100" spans="2:5">
+      <c r="B100" s="4">
+        <v>98</v>
+      </c>
+      <c r="C100" s="2">
+        <v>42367</v>
+      </c>
+      <c r="D100" s="3">
         <v>0.67133101851851851</v>
       </c>
-      <c r="C99">
+      <c r="E100" s="5">
         <v>3.7276799999999999</v>
       </c>
     </row>
-    <row r="100" spans="1:3">
-      <c r="A100" s="2">
-        <v>42367</v>
-      </c>
-      <c r="B100" s="1">
+    <row r="101" spans="2:5">
+      <c r="B101" s="4">
+        <v>99</v>
+      </c>
+      <c r="C101" s="2">
+        <v>42367</v>
+      </c>
+      <c r="D101" s="3">
         <v>0.67164351851851845</v>
       </c>
-      <c r="C100">
+      <c r="E101" s="5">
         <v>3.7276799999999999</v>
       </c>
     </row>
-    <row r="101" spans="1:3">
-      <c r="A101" s="2">
-        <v>42367</v>
-      </c>
-      <c r="B101" s="1">
+    <row r="102" spans="2:5">
+      <c r="B102" s="4">
+        <v>100</v>
+      </c>
+      <c r="C102" s="2">
+        <v>42367</v>
+      </c>
+      <c r="D102" s="3">
         <v>0.67180555555555566</v>
       </c>
-      <c r="C101">
+      <c r="E102" s="5">
         <v>3.7276799999999999</v>
       </c>
     </row>
-    <row r="102" spans="1:3">
-      <c r="A102" s="2">
-        <v>42367</v>
-      </c>
-      <c r="B102" s="1">
+    <row r="103" spans="2:5">
+      <c r="B103" s="4">
+        <v>101</v>
+      </c>
+      <c r="C103" s="2">
+        <v>42367</v>
+      </c>
+      <c r="D103" s="3">
         <v>0.67180555555555566</v>
       </c>
-      <c r="C102">
+      <c r="E103" s="5">
         <v>3.7276799999999999</v>
       </c>
     </row>
-    <row r="103" spans="1:3">
-      <c r="A103" s="2">
-        <v>42367</v>
-      </c>
-      <c r="B103" s="1">
+    <row r="104" spans="2:5">
+      <c r="B104" s="4">
+        <v>102</v>
+      </c>
+      <c r="C104" s="2">
+        <v>42367</v>
+      </c>
+      <c r="D104" s="3">
         <v>0.67195601851851849</v>
       </c>
-      <c r="C103">
+      <c r="E104" s="5">
         <v>3.71712</v>
       </c>
     </row>
-    <row r="104" spans="1:3">
-      <c r="A104" s="2">
-        <v>42367</v>
-      </c>
-      <c r="B104" s="1">
+    <row r="105" spans="2:5">
+      <c r="B105" s="4">
+        <v>103</v>
+      </c>
+      <c r="C105" s="2">
+        <v>42367</v>
+      </c>
+      <c r="D105" s="3">
         <v>0.71586805555555555</v>
       </c>
-      <c r="C104">
+      <c r="E105" s="5">
         <v>3.7382399999999998</v>
       </c>
     </row>
-    <row r="105" spans="1:3">
-      <c r="A105" s="2">
-        <v>42367</v>
-      </c>
-      <c r="B105" s="1">
+    <row r="106" spans="2:5">
+      <c r="B106" s="4">
+        <v>104</v>
+      </c>
+      <c r="C106" s="2">
+        <v>42367</v>
+      </c>
+      <c r="D106" s="3">
         <v>0.75357638888888889</v>
       </c>
-      <c r="C105">
+      <c r="E106" s="5">
         <v>3.7276799999999999</v>
       </c>
     </row>
-    <row r="106" spans="1:3">
-      <c r="A106" s="2">
-        <v>42367</v>
-      </c>
-      <c r="B106" s="1">
+    <row r="107" spans="2:5">
+      <c r="B107" s="4">
+        <v>105</v>
+      </c>
+      <c r="C107" s="2">
+        <v>42367</v>
+      </c>
+      <c r="D107" s="3">
         <v>0.75395833333333329</v>
       </c>
-      <c r="C106">
+      <c r="E107" s="5">
         <v>3.7276799999999999</v>
       </c>
     </row>
-    <row r="107" spans="1:3">
-      <c r="A107" s="2">
-        <v>42367</v>
-      </c>
-      <c r="B107" s="1">
+    <row r="108" spans="2:5">
+      <c r="B108" s="4">
+        <v>106</v>
+      </c>
+      <c r="C108" s="2">
+        <v>42367</v>
+      </c>
+      <c r="D108" s="3">
         <v>0.76038194444444451</v>
       </c>
-      <c r="C107">
+      <c r="E108" s="5">
         <v>3.7382399999999998</v>
       </c>
     </row>
-    <row r="108" spans="1:3">
-      <c r="A108" s="2">
-        <v>42367</v>
-      </c>
-      <c r="B108" s="1">
+    <row r="109" spans="2:5">
+      <c r="B109" s="4">
+        <v>107</v>
+      </c>
+      <c r="C109" s="2">
+        <v>42367</v>
+      </c>
+      <c r="D109" s="3">
         <v>0.76091435185185186</v>
       </c>
-      <c r="C108">
+      <c r="E109" s="5">
         <v>3.7276799999999999</v>
       </c>
     </row>
-    <row r="109" spans="1:3">
-      <c r="A109" s="2">
-        <v>42367</v>
-      </c>
-      <c r="B109" s="1">
+    <row r="110" spans="2:5">
+      <c r="B110" s="4">
+        <v>108</v>
+      </c>
+      <c r="C110" s="2">
+        <v>42367</v>
+      </c>
+      <c r="D110" s="3">
         <v>0.76180555555555562</v>
       </c>
-      <c r="C109">
+      <c r="E110" s="5">
         <v>3.71712</v>
       </c>
     </row>
-    <row r="110" spans="1:3">
-      <c r="A110" s="2">
-        <v>42367</v>
-      </c>
-      <c r="B110" s="1">
+    <row r="111" spans="2:5">
+      <c r="B111" s="4">
+        <v>109</v>
+      </c>
+      <c r="C111" s="2">
+        <v>42367</v>
+      </c>
+      <c r="D111" s="3">
         <v>0.76187499999999997</v>
       </c>
-      <c r="C110">
+      <c r="E111" s="5">
         <v>3.71712</v>
       </c>
     </row>
-    <row r="111" spans="1:3">
-      <c r="A111" s="2">
-        <v>42367</v>
-      </c>
-      <c r="B111" s="1">
+    <row r="112" spans="2:5">
+      <c r="B112" s="4">
+        <v>110</v>
+      </c>
+      <c r="C112" s="2">
+        <v>42367</v>
+      </c>
+      <c r="D112" s="3">
         <v>0.7637962962962962</v>
       </c>
-      <c r="C111">
+      <c r="E112" s="5">
         <v>3.7276799999999999</v>
       </c>
     </row>
-    <row r="112" spans="1:3">
-      <c r="A112" s="2">
-        <v>42367</v>
-      </c>
-      <c r="B112" s="1">
+    <row r="113" spans="2:5">
+      <c r="B113" s="4">
+        <v>111</v>
+      </c>
+      <c r="C113" s="2">
+        <v>42367</v>
+      </c>
+      <c r="D113" s="3">
         <v>0.7642592592592593</v>
       </c>
-      <c r="C112">
+      <c r="E113" s="5">
         <v>3.7276799999999999</v>
       </c>
     </row>
-    <row r="113" spans="1:3">
-      <c r="A113" s="2">
-        <v>42367</v>
-      </c>
-      <c r="B113" s="1">
+    <row r="114" spans="2:5">
+      <c r="B114" s="4">
+        <v>112</v>
+      </c>
+      <c r="C114" s="2">
+        <v>42367</v>
+      </c>
+      <c r="D114" s="3">
         <v>0.76440972222222225</v>
       </c>
-      <c r="C113">
+      <c r="E114" s="5">
         <v>3.71712</v>
       </c>
     </row>
-    <row r="114" spans="1:3">
-      <c r="A114" s="2">
-        <v>42367</v>
-      </c>
-      <c r="B114" s="1">
+    <row r="115" spans="2:5">
+      <c r="B115" s="4">
+        <v>113</v>
+      </c>
+      <c r="C115" s="2">
+        <v>42367</v>
+      </c>
+      <c r="D115" s="3">
         <v>0.76640046296296294</v>
       </c>
-      <c r="C114">
+      <c r="E115" s="5">
         <v>3.7276799999999999</v>
       </c>
     </row>
-    <row r="115" spans="1:3">
-      <c r="A115" s="2">
-        <v>42367</v>
-      </c>
-      <c r="B115" s="1">
+    <row r="116" spans="2:5">
+      <c r="B116" s="4">
+        <v>114</v>
+      </c>
+      <c r="C116" s="2">
+        <v>42367</v>
+      </c>
+      <c r="D116" s="3">
         <v>0.77173611111111118</v>
       </c>
-      <c r="C115">
+      <c r="E116" s="5">
         <v>3.7276799999999999</v>
       </c>
     </row>
-    <row r="116" spans="1:3">
-      <c r="A116" s="2">
-        <v>42367</v>
-      </c>
-      <c r="B116" s="1">
+    <row r="117" spans="2:5">
+      <c r="B117" s="4">
+        <v>115</v>
+      </c>
+      <c r="C117" s="2">
+        <v>42367</v>
+      </c>
+      <c r="D117" s="3">
         <v>0.79357638888888893</v>
       </c>
-      <c r="C116">
+      <c r="E117" s="5">
         <v>3.71712</v>
       </c>
     </row>
-    <row r="117" spans="1:3">
-      <c r="A117" s="2">
-        <v>42367</v>
-      </c>
-      <c r="B117" s="1">
+    <row r="118" spans="2:5">
+      <c r="B118" s="4">
+        <v>116</v>
+      </c>
+      <c r="C118" s="2">
+        <v>42367</v>
+      </c>
+      <c r="D118" s="3">
         <v>0.81020833333333331</v>
       </c>
-      <c r="C117">
+      <c r="E118" s="5">
         <v>3.71712</v>
       </c>
     </row>
-    <row r="118" spans="1:3">
-      <c r="A118" s="2">
-        <v>42367</v>
-      </c>
-      <c r="B118" s="1">
+    <row r="119" spans="2:5">
+      <c r="B119" s="4">
+        <v>117</v>
+      </c>
+      <c r="C119" s="2">
+        <v>42367</v>
+      </c>
+      <c r="D119" s="3">
         <v>0.81141203703703713</v>
       </c>
-      <c r="C118">
+      <c r="E119" s="5">
         <v>3.7276799999999999</v>
       </c>
     </row>
-    <row r="119" spans="1:3">
-      <c r="A119" s="2">
-        <v>42367</v>
-      </c>
-      <c r="B119" s="1">
+    <row r="120" spans="2:5">
+      <c r="B120" s="4">
+        <v>118</v>
+      </c>
+      <c r="C120" s="2">
+        <v>42367</v>
+      </c>
+      <c r="D120" s="3">
         <v>0.81165509259259261</v>
       </c>
-      <c r="C119">
+      <c r="E120" s="5">
         <v>3.71712</v>
       </c>
     </row>
-    <row r="120" spans="1:3">
-      <c r="A120" s="2">
-        <v>42367</v>
-      </c>
-      <c r="B120" s="1">
+    <row r="121" spans="2:5">
+      <c r="B121" s="4">
+        <v>119</v>
+      </c>
+      <c r="C121" s="2">
+        <v>42367</v>
+      </c>
+      <c r="D121" s="3">
         <v>0.81180555555555556</v>
       </c>
-      <c r="C120">
+      <c r="E121" s="5">
         <v>3.71712</v>
       </c>
     </row>
-    <row r="121" spans="1:3">
-      <c r="A121" s="2">
-        <v>42367</v>
-      </c>
-      <c r="B121" s="1">
+    <row r="122" spans="2:5">
+      <c r="B122" s="4">
+        <v>120</v>
+      </c>
+      <c r="C122" s="2">
+        <v>42367</v>
+      </c>
+      <c r="D122" s="3">
         <v>0.81194444444444447</v>
       </c>
-      <c r="C121">
+      <c r="E122" s="5">
         <v>3.71712</v>
       </c>
     </row>
-    <row r="122" spans="1:3">
-      <c r="A122" s="2">
-        <v>42367</v>
-      </c>
-      <c r="B122" s="1">
+    <row r="123" spans="2:5">
+      <c r="B123" s="4">
+        <v>121</v>
+      </c>
+      <c r="C123" s="2">
+        <v>42367</v>
+      </c>
+      <c r="D123" s="3">
         <v>0.8121990740740741</v>
       </c>
-      <c r="C122">
+      <c r="E123" s="5">
         <v>3.71712</v>
       </c>
     </row>
-    <row r="123" spans="1:3">
-      <c r="A123" s="2">
-        <v>42367</v>
-      </c>
-      <c r="B123" s="1">
+    <row r="124" spans="2:5">
+      <c r="B124" s="4">
+        <v>122</v>
+      </c>
+      <c r="C124" s="2">
+        <v>42367</v>
+      </c>
+      <c r="D124" s="3">
         <v>0.81238425925925928</v>
       </c>
-      <c r="C123">
+      <c r="E124" s="5">
         <v>3.71712</v>
       </c>
     </row>
-    <row r="124" spans="1:3">
-      <c r="A124" s="2">
-        <v>42367</v>
-      </c>
-      <c r="B124" s="1">
+    <row r="125" spans="2:5">
+      <c r="B125" s="4">
+        <v>123</v>
+      </c>
+      <c r="C125" s="2">
+        <v>42367</v>
+      </c>
+      <c r="D125" s="3">
         <v>0.81372685185185178</v>
       </c>
-      <c r="C124">
+      <c r="E125" s="5">
         <v>3.71712</v>
       </c>
     </row>
-    <row r="125" spans="1:3">
-      <c r="A125" s="2">
-        <v>42367</v>
-      </c>
-      <c r="B125" s="1">
+    <row r="126" spans="2:5">
+      <c r="B126" s="4">
+        <v>124</v>
+      </c>
+      <c r="C126" s="2">
+        <v>42367</v>
+      </c>
+      <c r="D126" s="3">
         <v>0.81393518518518526</v>
       </c>
-      <c r="C125">
+      <c r="E126" s="5">
         <v>3.71712</v>
       </c>
     </row>
-    <row r="126" spans="1:3">
-      <c r="A126" s="2">
-        <v>42367</v>
-      </c>
-      <c r="B126" s="1">
+    <row r="127" spans="2:5">
+      <c r="B127" s="4">
+        <v>125</v>
+      </c>
+      <c r="C127" s="2">
+        <v>42367</v>
+      </c>
+      <c r="D127" s="3">
         <v>0.82224537037037038</v>
       </c>
-      <c r="C126">
+      <c r="E127" s="5">
         <v>3.71712</v>
       </c>
     </row>
-    <row r="127" spans="1:3">
-      <c r="A127" s="2">
-        <v>42367</v>
-      </c>
-      <c r="B127" s="1">
+    <row r="128" spans="2:5">
+      <c r="B128" s="4">
+        <v>126</v>
+      </c>
+      <c r="C128" s="2">
+        <v>42367</v>
+      </c>
+      <c r="D128" s="3">
         <v>0.82890046296296294</v>
       </c>
-      <c r="C127">
+      <c r="E128" s="5">
         <v>3.71712</v>
       </c>
     </row>
-    <row r="128" spans="1:3">
-      <c r="A128" s="2">
-        <v>42367</v>
-      </c>
-      <c r="B128" s="1">
+    <row r="129" spans="2:5">
+      <c r="B129" s="4">
+        <v>127</v>
+      </c>
+      <c r="C129" s="2">
+        <v>42367</v>
+      </c>
+      <c r="D129" s="3">
         <v>0.82923611111111117</v>
       </c>
-      <c r="C128">
+      <c r="E129" s="5">
         <v>3.71712</v>
       </c>
     </row>
-    <row r="129" spans="1:3">
-      <c r="A129" s="2">
-        <v>42367</v>
-      </c>
-      <c r="B129" s="1">
+    <row r="130" spans="2:5">
+      <c r="B130" s="4">
+        <v>128</v>
+      </c>
+      <c r="C130" s="2">
+        <v>42367</v>
+      </c>
+      <c r="D130" s="3">
         <v>0.8297337962962964</v>
       </c>
-      <c r="C129">
+      <c r="E130" s="5">
         <v>3.7065600000000001</v>
       </c>
     </row>
-    <row r="130" spans="1:3">
-      <c r="A130" s="2">
-        <v>42367</v>
-      </c>
-      <c r="B130" s="1">
+    <row r="131" spans="2:5">
+      <c r="B131" s="4">
+        <v>129</v>
+      </c>
+      <c r="C131" s="2">
+        <v>42367</v>
+      </c>
+      <c r="D131" s="3">
         <v>0.82986111111111116</v>
       </c>
-      <c r="C130">
+      <c r="E131" s="5">
         <v>3.7065600000000001</v>
       </c>
     </row>
-    <row r="131" spans="1:3">
-      <c r="A131" s="2">
-        <v>42367</v>
-      </c>
-      <c r="B131" s="1">
+    <row r="132" spans="2:5">
+      <c r="B132" s="4">
+        <v>130</v>
+      </c>
+      <c r="C132" s="2">
+        <v>42367</v>
+      </c>
+      <c r="D132" s="3">
         <v>0.83030092592592597</v>
       </c>
-      <c r="C131">
+      <c r="E132" s="5">
         <v>3.7065600000000001</v>
       </c>
     </row>
-    <row r="132" spans="1:3">
-      <c r="A132" s="2">
-        <v>42367</v>
-      </c>
-      <c r="B132" s="1">
+    <row r="133" spans="2:5">
+      <c r="B133" s="4">
+        <v>131</v>
+      </c>
+      <c r="C133" s="2">
+        <v>42367</v>
+      </c>
+      <c r="D133" s="3">
         <v>0.93616898148148142</v>
       </c>
-      <c r="C132">
+      <c r="E133" s="5">
         <v>3.71712</v>
       </c>
     </row>
-    <row r="133" spans="1:3">
-      <c r="A133" s="2">
-        <v>42367</v>
-      </c>
-      <c r="B133" s="1">
+    <row r="134" spans="2:5">
+      <c r="B134" s="4">
+        <v>132</v>
+      </c>
+      <c r="C134" s="2">
+        <v>42367</v>
+      </c>
+      <c r="D134" s="3">
         <v>0.93694444444444447</v>
       </c>
-      <c r="C133">
+      <c r="E134" s="5">
         <v>3.7065600000000001</v>
       </c>
     </row>
-    <row r="134" spans="1:3">
-      <c r="A134" s="2">
-        <v>42367</v>
-      </c>
-      <c r="B134" s="1">
+    <row r="135" spans="2:5">
+      <c r="B135" s="4">
+        <v>133</v>
+      </c>
+      <c r="C135" s="2">
+        <v>42367</v>
+      </c>
+      <c r="D135" s="3">
         <v>0.93726851851851845</v>
       </c>
-      <c r="C134">
+      <c r="E135" s="5">
         <v>3.71712</v>
       </c>
     </row>
-    <row r="135" spans="1:3">
-      <c r="A135" s="2">
-        <v>42367</v>
-      </c>
-      <c r="B135" s="1">
+    <row r="136" spans="2:5">
+      <c r="B136" s="4">
+        <v>134</v>
+      </c>
+      <c r="C136" s="2">
+        <v>42367</v>
+      </c>
+      <c r="D136" s="3">
         <v>0.93792824074074066</v>
       </c>
-      <c r="C135">
+      <c r="E136" s="5">
         <v>3.71712</v>
       </c>
     </row>
-    <row r="136" spans="1:3">
-      <c r="A136" s="2">
-        <v>42367</v>
-      </c>
-      <c r="B136" s="1">
+    <row r="137" spans="2:5">
+      <c r="B137" s="4">
+        <v>135</v>
+      </c>
+      <c r="C137" s="2">
+        <v>42367</v>
+      </c>
+      <c r="D137" s="3">
         <v>0.93877314814814816</v>
       </c>
-      <c r="C136">
+      <c r="E137" s="5">
         <v>3.71712</v>
       </c>
     </row>
-    <row r="137" spans="1:3">
-      <c r="A137" s="2">
-        <v>42367</v>
-      </c>
-      <c r="B137" s="1">
+    <row r="138" spans="2:5">
+      <c r="B138" s="4">
+        <v>136</v>
+      </c>
+      <c r="C138" s="2">
+        <v>42367</v>
+      </c>
+      <c r="D138" s="3">
         <v>0.93915509259259267</v>
       </c>
-      <c r="C137">
+      <c r="E138" s="5">
         <v>3.7065600000000001</v>
       </c>
     </row>
-    <row r="138" spans="1:3">
-      <c r="A138" s="2">
-        <v>42367</v>
-      </c>
-      <c r="B138" s="1">
+    <row r="139" spans="2:5">
+      <c r="B139" s="4">
+        <v>137</v>
+      </c>
+      <c r="C139" s="2">
+        <v>42367</v>
+      </c>
+      <c r="D139" s="3">
         <v>0.94085648148148149</v>
       </c>
-      <c r="C138">
+      <c r="E139" s="5">
         <v>3.71712</v>
       </c>
     </row>
-    <row r="139" spans="1:3">
-      <c r="A139" s="2">
-        <v>42367</v>
-      </c>
-      <c r="B139" s="1">
+    <row r="140" spans="2:5">
+      <c r="B140" s="4">
+        <v>138</v>
+      </c>
+      <c r="C140" s="2">
+        <v>42367</v>
+      </c>
+      <c r="D140" s="3">
         <v>0.9418171296296296</v>
       </c>
-      <c r="C139">
+      <c r="E140" s="5">
         <v>3.71712</v>
       </c>
     </row>
-    <row r="140" spans="1:3">
-      <c r="A140" s="2">
-        <v>42367</v>
-      </c>
-      <c r="B140" s="1">
+    <row r="141" spans="2:5">
+      <c r="B141" s="4">
+        <v>139</v>
+      </c>
+      <c r="C141" s="2">
+        <v>42367</v>
+      </c>
+      <c r="D141" s="3">
         <v>0.94335648148148143</v>
       </c>
-      <c r="C140">
+      <c r="E141" s="5">
         <v>3.7065600000000001</v>
       </c>
     </row>
-    <row r="141" spans="1:3">
-      <c r="A141" s="2">
-        <v>42367</v>
-      </c>
-      <c r="B141" s="1">
+    <row r="142" spans="2:5">
+      <c r="B142" s="4">
+        <v>140</v>
+      </c>
+      <c r="C142" s="2">
+        <v>42367</v>
+      </c>
+      <c r="D142" s="3">
         <v>0.94353009259259257</v>
       </c>
-      <c r="C141">
+      <c r="E142" s="5">
         <v>3.7065600000000001</v>
       </c>
     </row>
-    <row r="142" spans="1:3">
-      <c r="A142" s="2">
-        <v>42367</v>
-      </c>
-      <c r="B142" s="1">
+    <row r="143" spans="2:5">
+      <c r="B143" s="4">
+        <v>141</v>
+      </c>
+      <c r="C143" s="2">
+        <v>42367</v>
+      </c>
+      <c r="D143" s="3">
         <v>0.94575231481481481</v>
       </c>
-      <c r="C142">
+      <c r="E143" s="5">
         <v>3.7065600000000001</v>
       </c>
     </row>
-    <row r="143" spans="1:3">
-      <c r="A143" s="2">
-        <v>42367</v>
-      </c>
-      <c r="B143" s="1">
+    <row r="144" spans="2:5">
+      <c r="B144" s="4">
+        <v>142</v>
+      </c>
+      <c r="C144" s="2">
+        <v>42367</v>
+      </c>
+      <c r="D144" s="3">
         <v>0.94671296296296292</v>
       </c>
-      <c r="C143">
+      <c r="E144" s="5">
         <v>3.7065600000000001</v>
       </c>
     </row>
-    <row r="144" spans="1:3">
-      <c r="A144" s="2">
-        <v>42367</v>
-      </c>
-      <c r="B144" s="1">
+    <row r="145" spans="2:5">
+      <c r="B145" s="4">
+        <v>143</v>
+      </c>
+      <c r="C145" s="2">
+        <v>42367</v>
+      </c>
+      <c r="D145" s="3">
         <v>0.94783564814814814</v>
       </c>
-      <c r="C144">
+      <c r="E145" s="5">
         <v>3.7065600000000001</v>
       </c>
     </row>
-    <row r="145" spans="1:3">
-      <c r="A145" s="2">
-        <v>42367</v>
-      </c>
-      <c r="B145" s="1">
+    <row r="146" spans="2:5">
+      <c r="B146" s="4">
+        <v>144</v>
+      </c>
+      <c r="C146" s="2">
+        <v>42367</v>
+      </c>
+      <c r="D146" s="3">
         <v>0.95825231481481488</v>
       </c>
-      <c r="C145">
+      <c r="E146" s="5">
         <v>3.7065600000000001</v>
       </c>
     </row>
-    <row r="146" spans="1:3">
-      <c r="A146" s="2">
-        <v>42367</v>
-      </c>
-      <c r="B146" s="1">
+    <row r="147" spans="2:5">
+      <c r="B147" s="4">
+        <v>145</v>
+      </c>
+      <c r="C147" s="2">
+        <v>42367</v>
+      </c>
+      <c r="D147" s="3">
         <v>0.96069444444444452</v>
       </c>
-      <c r="C146">
+      <c r="E147" s="5">
         <v>3.7065600000000001</v>
       </c>
     </row>
-    <row r="147" spans="1:3">
-      <c r="A147" s="2">
-        <v>42367</v>
-      </c>
-      <c r="B147" s="1">
+    <row r="148" spans="2:5">
+      <c r="B148" s="4">
+        <v>146</v>
+      </c>
+      <c r="C148" s="2">
+        <v>42367</v>
+      </c>
+      <c r="D148" s="3">
         <v>0.96478009259259256</v>
       </c>
-      <c r="C147">
+      <c r="E148" s="5">
         <v>3.6960000000000002</v>
       </c>
     </row>
-    <row r="148" spans="1:3">
-      <c r="A148" s="2">
-        <v>42367</v>
-      </c>
-      <c r="B148" s="1">
+    <row r="149" spans="2:5">
+      <c r="B149" s="4">
+        <v>147</v>
+      </c>
+      <c r="C149" s="2">
+        <v>42367</v>
+      </c>
+      <c r="D149" s="3">
         <v>0.9657175925925926</v>
       </c>
-      <c r="C148">
+      <c r="E149" s="5">
         <v>3.7065600000000001</v>
       </c>
     </row>
-    <row r="149" spans="1:3">
-      <c r="A149" s="2">
-        <v>42367</v>
-      </c>
-      <c r="B149" s="1">
+    <row r="150" spans="2:5">
+      <c r="B150" s="4">
+        <v>148</v>
+      </c>
+      <c r="C150" s="2">
+        <v>42367</v>
+      </c>
+      <c r="D150" s="3">
         <v>0.96805555555555556</v>
       </c>
-      <c r="C149">
+      <c r="E150" s="5">
         <v>3.6960000000000002</v>
       </c>
     </row>
-    <row r="150" spans="1:3">
-      <c r="A150" s="2">
-        <v>42367</v>
-      </c>
-      <c r="B150" s="1">
+    <row r="151" spans="2:5">
+      <c r="B151" s="4">
+        <v>149</v>
+      </c>
+      <c r="C151" s="2">
+        <v>42367</v>
+      </c>
+      <c r="D151" s="3">
         <v>0.96885416666666668</v>
       </c>
-      <c r="C150">
+      <c r="E151" s="5">
         <v>3.6960000000000002</v>
       </c>
     </row>
-    <row r="151" spans="1:3">
-      <c r="A151" s="2">
-        <v>42367</v>
-      </c>
-      <c r="B151" s="1">
+    <row r="152" spans="2:5">
+      <c r="B152" s="4">
+        <v>150</v>
+      </c>
+      <c r="C152" s="2">
+        <v>42367</v>
+      </c>
+      <c r="D152" s="3">
         <v>0.97099537037037031</v>
       </c>
-      <c r="C151">
+      <c r="E152" s="5">
         <v>3.6960000000000002</v>
       </c>
     </row>
-    <row r="152" spans="1:3">
-      <c r="A152" s="2">
-        <v>42367</v>
-      </c>
-      <c r="B152" s="1">
+    <row r="153" spans="2:5">
+      <c r="B153" s="4">
+        <v>151</v>
+      </c>
+      <c r="C153" s="2">
+        <v>42367</v>
+      </c>
+      <c r="D153" s="3">
         <v>0.97233796296296304</v>
       </c>
-      <c r="C152">
+      <c r="E153" s="5">
         <v>3.6960000000000002</v>
       </c>
     </row>
-    <row r="153" spans="1:3">
-      <c r="A153" s="2">
-        <v>42367</v>
-      </c>
-      <c r="B153" s="1">
+    <row r="154" spans="2:5">
+      <c r="B154" s="4">
+        <v>152</v>
+      </c>
+      <c r="C154" s="2">
+        <v>42367</v>
+      </c>
+      <c r="D154" s="3">
         <v>0.98799768518518516</v>
       </c>
-      <c r="C153">
+      <c r="E154" s="5">
         <v>3.7065600000000001</v>
       </c>
     </row>
-    <row r="154" spans="1:3">
-      <c r="A154" s="2">
-        <v>42368</v>
-      </c>
-      <c r="B154" s="1">
+    <row r="155" spans="2:5">
+      <c r="B155" s="4">
+        <v>153</v>
+      </c>
+      <c r="C155" s="2">
+        <v>42368</v>
+      </c>
+      <c r="D155" s="3">
         <v>7.2418981481481473E-2</v>
       </c>
-      <c r="C154">
+      <c r="E155" s="5">
         <v>3.6960000000000002</v>
       </c>
     </row>
-    <row r="155" spans="1:3">
-      <c r="A155" s="2">
-        <v>42368</v>
-      </c>
-      <c r="B155" s="1">
+    <row r="156" spans="2:5">
+      <c r="B156" s="4">
+        <v>154</v>
+      </c>
+      <c r="C156" s="2">
+        <v>42368</v>
+      </c>
+      <c r="D156" s="3">
         <v>7.2662037037037039E-2</v>
       </c>
-      <c r="C155">
+      <c r="E156" s="5">
         <v>3.6960000000000002</v>
       </c>
     </row>
-    <row r="156" spans="1:3">
-      <c r="A156" s="2">
-        <v>42368</v>
-      </c>
-      <c r="B156" s="1">
+    <row r="157" spans="2:5">
+      <c r="B157" s="4">
+        <v>155</v>
+      </c>
+      <c r="C157" s="2">
+        <v>42368</v>
+      </c>
+      <c r="D157" s="3">
         <v>7.2835648148148149E-2</v>
       </c>
-      <c r="C156">
+      <c r="E157" s="5">
         <v>3.6960000000000002</v>
       </c>
     </row>
-    <row r="157" spans="1:3">
-      <c r="A157" s="2">
-        <v>42368</v>
-      </c>
-      <c r="B157" s="1">
+    <row r="158" spans="2:5">
+      <c r="B158" s="4">
+        <v>156</v>
+      </c>
+      <c r="C158" s="2">
+        <v>42368</v>
+      </c>
+      <c r="D158" s="3">
         <v>7.3206018518518517E-2</v>
       </c>
-      <c r="C157">
+      <c r="E158" s="5">
         <v>3.6960000000000002</v>
       </c>
     </row>
-    <row r="158" spans="1:3">
-      <c r="A158" s="2">
-        <v>42368</v>
-      </c>
-      <c r="B158" s="1">
+    <row r="159" spans="2:5">
+      <c r="B159" s="4">
+        <v>157</v>
+      </c>
+      <c r="C159" s="2">
+        <v>42368</v>
+      </c>
+      <c r="D159" s="3">
         <v>0.16576388888888891</v>
       </c>
-      <c r="C158">
+      <c r="E159" s="5">
         <v>3.6960000000000002</v>
       </c>
     </row>
-    <row r="159" spans="1:3">
-      <c r="A159" s="2">
-        <v>42368</v>
-      </c>
-      <c r="B159" s="1">
+    <row r="160" spans="2:5">
+      <c r="B160" s="4">
+        <v>158</v>
+      </c>
+      <c r="C160" s="2">
+        <v>42368</v>
+      </c>
+      <c r="D160" s="3">
         <v>0.18145833333333336</v>
       </c>
-      <c r="C159">
+      <c r="E160" s="5">
         <v>3.7065600000000001</v>
       </c>
     </row>
-    <row r="160" spans="1:3">
-      <c r="A160" s="2">
-        <v>42368</v>
-      </c>
-      <c r="B160" s="1">
+    <row r="161" spans="2:5">
+      <c r="B161" s="4">
+        <v>159</v>
+      </c>
+      <c r="C161" s="2">
+        <v>42368</v>
+      </c>
+      <c r="D161" s="3">
         <v>0.19219907407407408</v>
       </c>
-      <c r="C160">
+      <c r="E161" s="5">
         <v>3.6748799999999999</v>
       </c>
     </row>
-    <row r="161" spans="1:3">
-      <c r="A161" s="2">
-        <v>42368</v>
-      </c>
-      <c r="B161" s="1">
+    <row r="162" spans="2:5">
+      <c r="B162" s="4">
+        <v>160</v>
+      </c>
+      <c r="C162" s="2">
+        <v>42368</v>
+      </c>
+      <c r="D162" s="3">
         <v>0.19268518518518518</v>
       </c>
-      <c r="C161">
+      <c r="E162" s="5">
         <v>3.6748799999999999</v>
       </c>
     </row>
-    <row r="162" spans="1:3">
-      <c r="A162" s="2">
-        <v>42368</v>
-      </c>
-      <c r="B162" s="1">
+    <row r="163" spans="2:5">
+      <c r="B163" s="4">
+        <v>161</v>
+      </c>
+      <c r="C163" s="2">
+        <v>42368</v>
+      </c>
+      <c r="D163" s="3">
         <v>0.19317129629629629</v>
       </c>
-      <c r="C162">
+      <c r="E163" s="5">
         <v>3.6748799999999999</v>
       </c>
     </row>
-    <row r="163" spans="1:3">
-      <c r="A163" s="2">
-        <v>42368</v>
-      </c>
-      <c r="B163" s="1">
+    <row r="164" spans="2:5">
+      <c r="B164" s="4">
+        <v>162</v>
+      </c>
+      <c r="C164" s="2">
+        <v>42368</v>
+      </c>
+      <c r="D164" s="3">
         <v>0.19333333333333333</v>
       </c>
-      <c r="C163">
+      <c r="E164" s="5">
         <v>3.6748799999999999</v>
       </c>
     </row>
-    <row r="164" spans="1:3">
-      <c r="A164" s="2">
-        <v>42368</v>
-      </c>
-      <c r="B164" s="1">
+    <row r="165" spans="2:5">
+      <c r="B165" s="4">
+        <v>163</v>
+      </c>
+      <c r="C165" s="2">
+        <v>42368</v>
+      </c>
+      <c r="D165" s="3">
         <v>0.19347222222222224</v>
       </c>
-      <c r="C164">
+      <c r="E165" s="5">
         <v>3.6748799999999999</v>
       </c>
     </row>
-    <row r="165" spans="1:3">
-      <c r="A165" s="2">
-        <v>42368</v>
-      </c>
-      <c r="B165" s="1">
+    <row r="166" spans="2:5">
+      <c r="B166" s="4">
+        <v>164</v>
+      </c>
+      <c r="C166" s="2">
+        <v>42368</v>
+      </c>
+      <c r="D166" s="3">
         <v>0.38418981481481485</v>
       </c>
-      <c r="C165">
+      <c r="E166" s="5">
         <v>3.6854399999999998</v>
       </c>
     </row>
-    <row r="166" spans="1:3">
-      <c r="A166" s="2">
-        <v>42368</v>
-      </c>
-      <c r="B166" s="1">
+    <row r="167" spans="2:5">
+      <c r="B167" s="4">
+        <v>165</v>
+      </c>
+      <c r="C167" s="2">
+        <v>42368</v>
+      </c>
+      <c r="D167" s="3">
         <v>0.48674768518518513</v>
       </c>
-      <c r="C166">
+      <c r="E167" s="5">
         <v>3.6748799999999999</v>
       </c>
     </row>
-    <row r="167" spans="1:3">
-      <c r="A167" s="2">
-        <v>42368</v>
-      </c>
-      <c r="B167" s="1">
+    <row r="168" spans="2:5">
+      <c r="B168" s="4">
+        <v>166</v>
+      </c>
+      <c r="C168" s="2">
+        <v>42368</v>
+      </c>
+      <c r="D168" s="3">
         <v>0.48690972222222223</v>
       </c>
-      <c r="C167">
+      <c r="E168" s="5">
         <v>3.6748799999999999</v>
       </c>
     </row>
-    <row r="168" spans="1:3">
-      <c r="A168" s="2">
-        <v>42368</v>
-      </c>
-      <c r="B168" s="1">
+    <row r="169" spans="2:5">
+      <c r="B169" s="4">
+        <v>167</v>
+      </c>
+      <c r="C169" s="2">
+        <v>42368</v>
+      </c>
+      <c r="D169" s="3">
         <v>0.5056018518518518</v>
       </c>
-      <c r="C168">
+      <c r="E169" s="5">
         <v>3.6748799999999999</v>
       </c>
     </row>
-    <row r="169" spans="1:3">
-      <c r="A169" s="2">
-        <v>42368</v>
-      </c>
-      <c r="B169" s="1">
+    <row r="170" spans="2:5">
+      <c r="B170" s="4">
+        <v>168</v>
+      </c>
+      <c r="C170" s="2">
+        <v>42368</v>
+      </c>
+      <c r="D170" s="3">
         <v>0.51905092592592594</v>
       </c>
-      <c r="C169">
+      <c r="E170" s="5">
         <v>3.6748799999999999</v>
       </c>
     </row>
-    <row r="170" spans="1:3">
-      <c r="A170" s="2">
-        <v>42368</v>
-      </c>
-      <c r="B170" s="1">
+    <row r="171" spans="2:5">
+      <c r="B171" s="4">
+        <v>169</v>
+      </c>
+      <c r="C171" s="2">
+        <v>42368</v>
+      </c>
+      <c r="D171" s="3">
         <v>0.56958333333333333</v>
       </c>
-      <c r="C170">
+      <c r="E171" s="5">
         <v>3.6748799999999999</v>
       </c>
     </row>
-    <row r="171" spans="1:3">
-      <c r="A171" s="2">
-        <v>42368</v>
-      </c>
-      <c r="B171" s="1">
+    <row r="172" spans="2:5">
+      <c r="B172" s="4">
+        <v>170</v>
+      </c>
+      <c r="C172" s="2">
+        <v>42368</v>
+      </c>
+      <c r="D172" s="3">
         <v>0.56976851851851851</v>
       </c>
-      <c r="C171">
+      <c r="E172" s="5">
         <v>3.6748799999999999</v>
       </c>
     </row>
-    <row r="172" spans="1:3">
-      <c r="A172" s="2">
-        <v>42368</v>
-      </c>
-      <c r="B172" s="1">
+    <row r="173" spans="2:5">
+      <c r="B173" s="4">
+        <v>171</v>
+      </c>
+      <c r="C173" s="2">
+        <v>42368</v>
+      </c>
+      <c r="D173" s="3">
         <v>0.56995370370370368</v>
       </c>
-      <c r="C172">
+      <c r="E173" s="5">
         <v>3.6748799999999999</v>
       </c>
     </row>
-    <row r="173" spans="1:3">
-      <c r="A173" s="2">
-        <v>42368</v>
-      </c>
-      <c r="B173" s="1">
+    <row r="174" spans="2:5">
+      <c r="B174" s="4">
+        <v>172</v>
+      </c>
+      <c r="C174" s="2">
+        <v>42368</v>
+      </c>
+      <c r="D174" s="3">
         <v>0.57006944444444441</v>
       </c>
-      <c r="C173">
+      <c r="E174" s="5">
         <v>3.6748799999999999</v>
       </c>
     </row>
-    <row r="174" spans="1:3">
-      <c r="A174" s="2">
-        <v>42368</v>
-      </c>
-      <c r="B174" s="1">
+    <row r="175" spans="2:5">
+      <c r="B175" s="4">
+        <v>173</v>
+      </c>
+      <c r="C175" s="2">
+        <v>42368</v>
+      </c>
+      <c r="D175" s="3">
         <v>0.57028935185185181</v>
       </c>
-      <c r="C174">
+      <c r="E175" s="5">
         <v>3.6748799999999999</v>
       </c>
     </row>
-    <row r="175" spans="1:3">
-      <c r="A175" s="2">
-        <v>42368</v>
-      </c>
-      <c r="B175" s="1">
+    <row r="176" spans="2:5">
+      <c r="B176" s="4">
+        <v>174</v>
+      </c>
+      <c r="C176" s="2">
+        <v>42368</v>
+      </c>
+      <c r="D176" s="3">
         <v>0.57046296296296295</v>
       </c>
-      <c r="C175">
+      <c r="E176" s="5">
         <v>3.66432</v>
       </c>
     </row>
-    <row r="176" spans="1:3">
-      <c r="A176" s="2">
-        <v>42368</v>
-      </c>
-      <c r="B176" s="1">
+    <row r="177" spans="2:5">
+      <c r="B177" s="4">
+        <v>175</v>
+      </c>
+      <c r="C177" s="2">
+        <v>42368</v>
+      </c>
+      <c r="D177" s="3">
         <v>0.57070601851851854</v>
       </c>
-      <c r="C176">
+      <c r="E177" s="5">
         <v>3.66432</v>
       </c>
     </row>
-    <row r="177" spans="1:3">
-      <c r="A177" s="2">
-        <v>42368</v>
-      </c>
-      <c r="B177" s="1">
+    <row r="178" spans="2:5">
+      <c r="B178" s="4">
+        <v>176</v>
+      </c>
+      <c r="C178" s="2">
+        <v>42368</v>
+      </c>
+      <c r="D178" s="3">
         <v>0.5708333333333333</v>
       </c>
-      <c r="C177">
+      <c r="E178" s="5">
         <v>3.66432</v>
       </c>
     </row>
-    <row r="178" spans="1:3">
-      <c r="A178" s="2">
-        <v>42368</v>
-      </c>
-      <c r="B178" s="1">
+    <row r="179" spans="2:5">
+      <c r="B179" s="4">
+        <v>177</v>
+      </c>
+      <c r="C179" s="2">
+        <v>42368</v>
+      </c>
+      <c r="D179" s="3">
         <v>0.57096064814814818</v>
       </c>
-      <c r="C178">
+      <c r="E179" s="5">
         <v>3.66432</v>
       </c>
     </row>
-    <row r="179" spans="1:3">
-      <c r="A179" s="2">
-        <v>42368</v>
-      </c>
-      <c r="B179" s="1">
+    <row r="180" spans="2:5">
+      <c r="B180" s="4">
+        <v>178</v>
+      </c>
+      <c r="C180" s="2">
+        <v>42368</v>
+      </c>
+      <c r="D180" s="3">
         <v>0.57943287037037039</v>
       </c>
-      <c r="C179">
+      <c r="E180" s="5">
         <v>3.66432</v>
       </c>
     </row>
-    <row r="180" spans="1:3">
-      <c r="A180" s="2">
-        <v>42368</v>
-      </c>
-      <c r="B180" s="1">
+    <row r="181" spans="2:5">
+      <c r="B181" s="4">
+        <v>179</v>
+      </c>
+      <c r="C181" s="2">
+        <v>42368</v>
+      </c>
+      <c r="D181" s="3">
         <v>0.58015046296296291</v>
       </c>
-      <c r="C180">
+      <c r="E181" s="5">
         <v>3.66432</v>
       </c>
     </row>
-    <row r="181" spans="1:3">
-      <c r="A181" s="2">
-        <v>42368</v>
-      </c>
-      <c r="B181" s="1">
+    <row r="182" spans="2:5">
+      <c r="B182" s="4">
+        <v>180</v>
+      </c>
+      <c r="C182" s="2">
+        <v>42368</v>
+      </c>
+      <c r="D182" s="3">
         <v>0.5816203703703704</v>
       </c>
-      <c r="C181">
+      <c r="E182" s="5">
         <v>3.66432</v>
       </c>
     </row>
-    <row r="182" spans="1:3">
-      <c r="A182" s="2">
-        <v>42368</v>
-      </c>
-      <c r="B182" s="1">
+    <row r="183" spans="2:5">
+      <c r="B183" s="4">
+        <v>181</v>
+      </c>
+      <c r="C183" s="2">
+        <v>42368</v>
+      </c>
+      <c r="D183" s="3">
         <v>0.59622685185185187</v>
       </c>
-      <c r="C182">
+      <c r="E183" s="5">
         <v>3.66432</v>
       </c>
     </row>
-    <row r="183" spans="1:3">
-      <c r="A183" s="2">
-        <v>42368</v>
-      </c>
-      <c r="B183" s="1">
+    <row r="184" spans="2:5">
+      <c r="B184" s="4">
+        <v>182</v>
+      </c>
+      <c r="C184" s="2">
+        <v>42368</v>
+      </c>
+      <c r="D184" s="3">
         <v>0.65368055555555549</v>
       </c>
-      <c r="C183">
+      <c r="E184" s="5">
         <v>3.6748799999999999</v>
       </c>
     </row>
-    <row r="184" spans="1:3">
-      <c r="A184" s="2">
-        <v>42368</v>
-      </c>
-      <c r="B184" s="1">
+    <row r="185" spans="2:5">
+      <c r="B185" s="4">
+        <v>183</v>
+      </c>
+      <c r="C185" s="2">
+        <v>42368</v>
+      </c>
+      <c r="D185" s="3">
         <v>0.78483796296296304</v>
       </c>
-      <c r="C184">
+      <c r="E185" s="5">
         <v>3.66432</v>
       </c>
     </row>
-    <row r="185" spans="1:3">
-      <c r="A185" s="2">
-        <v>42368</v>
-      </c>
-      <c r="B185" s="1">
+    <row r="186" spans="2:5">
+      <c r="B186" s="4">
+        <v>184</v>
+      </c>
+      <c r="C186" s="2">
+        <v>42368</v>
+      </c>
+      <c r="D186" s="3">
         <v>0.80710648148148145</v>
       </c>
-      <c r="C185">
+      <c r="E186" s="5">
         <v>3.66432</v>
       </c>
     </row>
-    <row r="186" spans="1:3">
-      <c r="A186" s="2">
-        <v>42368</v>
-      </c>
-      <c r="B186" s="1">
+    <row r="187" spans="2:5">
+      <c r="B187" s="4">
+        <v>185</v>
+      </c>
+      <c r="C187" s="2">
+        <v>42368</v>
+      </c>
+      <c r="D187" s="3">
         <v>0.80986111111111114</v>
       </c>
-      <c r="C186">
+      <c r="E187" s="5">
         <v>3.66432</v>
       </c>
     </row>
-    <row r="187" spans="1:3">
-      <c r="A187" s="2">
-        <v>42368</v>
-      </c>
-      <c r="B187" s="1">
+    <row r="188" spans="2:5">
+      <c r="B188" s="4">
+        <v>186</v>
+      </c>
+      <c r="C188" s="2">
+        <v>42368</v>
+      </c>
+      <c r="D188" s="3">
         <v>0.82570601851851855</v>
       </c>
-      <c r="C187">
+      <c r="E188" s="5">
         <v>3.66432</v>
       </c>
     </row>
-    <row r="188" spans="1:3">
-      <c r="A188" s="2">
-        <v>42368</v>
-      </c>
-      <c r="B188" s="1">
+    <row r="189" spans="2:5">
+      <c r="B189" s="4">
+        <v>187</v>
+      </c>
+      <c r="C189" s="2">
+        <v>42368</v>
+      </c>
+      <c r="D189" s="3">
         <v>0.83061342592592602</v>
       </c>
-      <c r="C188">
+      <c r="E189" s="5">
         <v>3.66432</v>
       </c>
     </row>
-    <row r="189" spans="1:3">
-      <c r="A189" s="2">
-        <v>42368</v>
-      </c>
-      <c r="B189" s="1">
+    <row r="190" spans="2:5">
+      <c r="B190" s="4">
+        <v>188</v>
+      </c>
+      <c r="C190" s="2">
+        <v>42368</v>
+      </c>
+      <c r="D190" s="3">
         <v>0.9003472222222223</v>
       </c>
-      <c r="C189">
+      <c r="E190" s="5">
         <v>3.66432</v>
       </c>
     </row>
-    <row r="190" spans="1:3">
-      <c r="A190" s="2">
-        <v>42368</v>
-      </c>
-      <c r="B190" s="1">
+    <row r="191" spans="2:5">
+      <c r="B191" s="4">
+        <v>189</v>
+      </c>
+      <c r="C191" s="2">
+        <v>42368</v>
+      </c>
+      <c r="D191" s="3">
         <v>0.90052083333333333</v>
       </c>
-      <c r="C190">
+      <c r="E191" s="5">
         <v>3.6537600000000001</v>
       </c>
     </row>
-    <row r="191" spans="1:3">
-      <c r="A191" s="2">
-        <v>42368</v>
-      </c>
-      <c r="B191" s="1">
+    <row r="192" spans="2:5">
+      <c r="B192" s="4">
+        <v>190</v>
+      </c>
+      <c r="C192" s="2">
+        <v>42368</v>
+      </c>
+      <c r="D192" s="3">
         <v>0.9008680555555556</v>
       </c>
-      <c r="C191">
+      <c r="E192" s="5">
         <v>3.66432</v>
       </c>
     </row>
-    <row r="192" spans="1:3">
-      <c r="A192" s="2">
-        <v>42368</v>
-      </c>
-      <c r="B192" s="1">
+    <row r="193" spans="2:5">
+      <c r="B193" s="4">
+        <v>191</v>
+      </c>
+      <c r="C193" s="2">
+        <v>42368</v>
+      </c>
+      <c r="D193" s="3">
         <v>0.90109953703703705</v>
       </c>
-      <c r="C192">
+      <c r="E193" s="5">
         <v>3.6537600000000001</v>
       </c>
     </row>
-    <row r="193" spans="1:3">
-      <c r="A193" s="2">
-        <v>42368</v>
-      </c>
-      <c r="B193" s="1">
+    <row r="194" spans="2:5">
+      <c r="B194" s="4">
+        <v>192</v>
+      </c>
+      <c r="C194" s="2">
+        <v>42368</v>
+      </c>
+      <c r="D194" s="3">
         <v>0.90143518518518517</v>
       </c>
-      <c r="C193">
+      <c r="E194" s="5">
         <v>3.6537600000000001</v>
       </c>
     </row>
-    <row r="194" spans="1:3">
-      <c r="A194" s="2">
-        <v>42368</v>
-      </c>
-      <c r="B194" s="1">
+    <row r="195" spans="2:5">
+      <c r="B195" s="4">
+        <v>193</v>
+      </c>
+      <c r="C195" s="2">
+        <v>42368</v>
+      </c>
+      <c r="D195" s="3">
         <v>0.90159722222222216</v>
       </c>
-      <c r="C194">
+      <c r="E195" s="5">
         <v>3.6537600000000001</v>
       </c>
     </row>
-    <row r="195" spans="1:3">
-      <c r="A195" s="2">
-        <v>42368</v>
-      </c>
-      <c r="B195" s="1">
+    <row r="196" spans="2:5">
+      <c r="B196" s="4">
+        <v>194</v>
+      </c>
+      <c r="C196" s="2">
+        <v>42368</v>
+      </c>
+      <c r="D196" s="3">
         <v>0.90182870370370372</v>
       </c>
-      <c r="C195">
+      <c r="E196" s="5">
         <v>3.6537600000000001</v>
       </c>
     </row>
-    <row r="196" spans="1:3">
-      <c r="A196" s="2">
-        <v>42368</v>
-      </c>
-      <c r="B196" s="1">
+    <row r="197" spans="2:5">
+      <c r="B197" s="4">
+        <v>195</v>
+      </c>
+      <c r="C197" s="2">
+        <v>42368</v>
+      </c>
+      <c r="D197" s="3">
         <v>0.90210648148148154</v>
       </c>
-      <c r="C196">
+      <c r="E197" s="5">
         <v>3.6537600000000001</v>
       </c>
     </row>
-    <row r="197" spans="1:3">
-      <c r="A197" s="2">
-        <v>42368</v>
-      </c>
-      <c r="B197" s="1">
+    <row r="198" spans="2:5">
+      <c r="B198" s="4">
+        <v>196</v>
+      </c>
+      <c r="C198" s="2">
+        <v>42368</v>
+      </c>
+      <c r="D198" s="3">
         <v>0.90230324074074064</v>
       </c>
-      <c r="C197">
+      <c r="E198" s="5">
         <v>3.6537600000000001</v>
       </c>
     </row>
-    <row r="198" spans="1:3">
-      <c r="A198" s="2">
-        <v>42368</v>
-      </c>
-      <c r="B198" s="1">
+    <row r="199" spans="2:5">
+      <c r="B199" s="4">
+        <v>197</v>
+      </c>
+      <c r="C199" s="2">
+        <v>42368</v>
+      </c>
+      <c r="D199" s="3">
         <v>0.90251157407407412</v>
       </c>
-      <c r="C198">
+      <c r="E199" s="5">
         <v>3.6537600000000001</v>
       </c>
     </row>
-    <row r="199" spans="1:3">
-      <c r="A199" s="2">
-        <v>42368</v>
-      </c>
-      <c r="B199" s="1">
+    <row r="200" spans="2:5">
+      <c r="B200" s="4">
+        <v>198</v>
+      </c>
+      <c r="C200" s="2">
+        <v>42368</v>
+      </c>
+      <c r="D200" s="3">
         <v>0.90270833333333333</v>
       </c>
-      <c r="C199">
+      <c r="E200" s="5">
         <v>3.6537600000000001</v>
       </c>
     </row>
-    <row r="200" spans="1:3">
-      <c r="A200" s="2">
-        <v>42368</v>
-      </c>
-      <c r="B200" s="1">
+    <row r="201" spans="2:5">
+      <c r="B201" s="4">
+        <v>199</v>
+      </c>
+      <c r="C201" s="2">
+        <v>42368</v>
+      </c>
+      <c r="D201" s="3">
         <v>0.94300925925925927</v>
       </c>
-      <c r="C200">
+      <c r="E201" s="5">
         <v>3.66432</v>
       </c>
     </row>
-    <row r="201" spans="1:3">
-      <c r="A201" s="2">
-        <v>42368</v>
-      </c>
-      <c r="B201" s="1">
+    <row r="202" spans="2:5">
+      <c r="B202" s="4">
+        <v>200</v>
+      </c>
+      <c r="C202" s="2">
+        <v>42368</v>
+      </c>
+      <c r="D202" s="3">
         <v>0.94317129629629637</v>
       </c>
-      <c r="C201">
+      <c r="E202" s="5">
         <v>3.6537600000000001</v>
       </c>
     </row>
-    <row r="202" spans="1:3">
-      <c r="A202" s="2">
-        <v>42368</v>
-      </c>
-      <c r="B202" s="1">
+    <row r="203" spans="2:5">
+      <c r="B203" s="4">
+        <v>201</v>
+      </c>
+      <c r="C203" s="2">
+        <v>42368</v>
+      </c>
+      <c r="D203" s="3">
         <v>0.94328703703703709</v>
       </c>
-      <c r="C202">
+      <c r="E203" s="5">
         <v>3.6537600000000001</v>
       </c>
     </row>
-    <row r="203" spans="1:3">
-      <c r="A203" s="2">
-        <v>42368</v>
-      </c>
-      <c r="B203" s="1">
+    <row r="204" spans="2:5">
+      <c r="B204" s="4">
+        <v>202</v>
+      </c>
+      <c r="C204" s="2">
+        <v>42368</v>
+      </c>
+      <c r="D204" s="3">
         <v>0.94344907407407408</v>
       </c>
-      <c r="C203">
+      <c r="E204" s="5">
         <v>3.6537600000000001</v>
       </c>
     </row>
-    <row r="204" spans="1:3">
-      <c r="A204" s="2">
-        <v>42368</v>
-      </c>
-      <c r="B204" s="1">
+    <row r="205" spans="2:5">
+      <c r="B205" s="4">
+        <v>203</v>
+      </c>
+      <c r="C205" s="2">
+        <v>42368</v>
+      </c>
+      <c r="D205" s="3">
         <v>0.94366898148148148</v>
       </c>
-      <c r="C204">
+      <c r="E205" s="5">
         <v>3.6537600000000001</v>
       </c>
     </row>
-    <row r="205" spans="1:3">
-      <c r="A205" s="2">
-        <v>42368</v>
-      </c>
-      <c r="B205" s="1">
+    <row r="206" spans="2:5">
+      <c r="B206" s="4">
+        <v>204</v>
+      </c>
+      <c r="C206" s="2">
+        <v>42368</v>
+      </c>
+      <c r="D206" s="3">
         <v>0.94384259259259251</v>
       </c>
-      <c r="C205">
+      <c r="E206" s="5">
         <v>3.6537600000000001</v>
       </c>
     </row>
-    <row r="206" spans="1:3">
-      <c r="A206" s="2">
-        <v>42368</v>
-      </c>
-      <c r="B206" s="1">
+    <row r="207" spans="2:5">
+      <c r="B207" s="4">
+        <v>205</v>
+      </c>
+      <c r="C207" s="2">
+        <v>42368</v>
+      </c>
+      <c r="D207" s="3">
         <v>0.94408564814814822</v>
       </c>
-      <c r="C206">
+      <c r="E207" s="5">
         <v>3.6537600000000001</v>
       </c>
     </row>
-    <row r="207" spans="1:3">
-      <c r="A207" s="2">
-        <v>42368</v>
-      </c>
-      <c r="B207" s="1">
+    <row r="208" spans="2:5">
+      <c r="B208" s="4">
+        <v>206</v>
+      </c>
+      <c r="C208" s="2">
+        <v>42368</v>
+      </c>
+      <c r="D208" s="3">
         <v>0.9442476851851852</v>
       </c>
-      <c r="C207">
+      <c r="E208" s="5">
         <v>3.6537600000000001</v>
       </c>
     </row>
-    <row r="208" spans="1:3">
-      <c r="A208" s="2">
-        <v>42368</v>
-      </c>
-      <c r="B208" s="1">
+    <row r="209" spans="2:5">
+      <c r="B209" s="4">
+        <v>207</v>
+      </c>
+      <c r="C209" s="2">
+        <v>42368</v>
+      </c>
+      <c r="D209" s="3">
         <v>0.94446759259259261</v>
       </c>
-      <c r="C208">
+      <c r="E209" s="5">
         <v>3.6432000000000002</v>
       </c>
     </row>
-    <row r="209" spans="1:3">
-      <c r="A209" s="2">
-        <v>42368</v>
-      </c>
-      <c r="B209" s="1">
+    <row r="210" spans="2:5">
+      <c r="B210" s="4">
+        <v>208</v>
+      </c>
+      <c r="C210" s="2">
+        <v>42368</v>
+      </c>
+      <c r="D210" s="3">
         <v>0.944849537037037</v>
       </c>
-      <c r="C209">
+      <c r="E210" s="5">
         <v>3.6537600000000001</v>
       </c>
     </row>
-    <row r="210" spans="1:3">
-      <c r="A210" s="2">
-        <v>42368</v>
-      </c>
-      <c r="B210" s="1">
+    <row r="211" spans="2:5">
+      <c r="B211" s="4">
+        <v>209</v>
+      </c>
+      <c r="C211" s="2">
+        <v>42368</v>
+      </c>
+      <c r="D211" s="3">
         <v>0.94502314814814825</v>
       </c>
-      <c r="C210">
+      <c r="E211" s="5">
         <v>3.6537600000000001</v>
       </c>
     </row>
-    <row r="211" spans="1:3">
-      <c r="A211" s="2">
-        <v>42368</v>
-      </c>
-      <c r="B211" s="1">
+    <row r="212" spans="2:5">
+      <c r="B212" s="4">
+        <v>210</v>
+      </c>
+      <c r="C212" s="2">
+        <v>42368</v>
+      </c>
+      <c r="D212" s="3">
         <v>0.94530092592592585</v>
       </c>
-      <c r="C211">
+      <c r="E212" s="5">
         <v>3.6537600000000001</v>
       </c>
     </row>
-    <row r="212" spans="1:3">
-      <c r="A212" s="2">
-        <v>42368</v>
-      </c>
-      <c r="B212" s="1">
+    <row r="213" spans="2:5">
+      <c r="B213" s="4">
+        <v>211</v>
+      </c>
+      <c r="C213" s="2">
+        <v>42368</v>
+      </c>
+      <c r="D213" s="3">
         <v>0.94569444444444439</v>
       </c>
-      <c r="C212">
+      <c r="E213" s="5">
         <v>3.6432000000000002</v>
       </c>
     </row>
-    <row r="213" spans="1:3">
-      <c r="A213" s="2">
+    <row r="214" spans="2:5">
+      <c r="B214" s="4">
+        <v>212</v>
+      </c>
+      <c r="C214" s="2">
         <v>42369</v>
       </c>
-      <c r="B213" s="1">
+      <c r="D214" s="3">
         <v>6.0185185185185177E-3</v>
       </c>
-      <c r="C213">
+      <c r="E214" s="5">
         <v>3.6537600000000001</v>
       </c>
     </row>
-    <row r="214" spans="1:3">
-      <c r="A214" s="2">
+    <row r="215" spans="2:5">
+      <c r="B215" s="4">
+        <v>213</v>
+      </c>
+      <c r="C215" s="2">
         <v>42369</v>
       </c>
-      <c r="B214" s="1">
+      <c r="D215" s="3">
         <v>2.1238425925925924E-2</v>
       </c>
-      <c r="C214">
+      <c r="E215" s="5">
         <v>3.6537600000000001</v>
       </c>
     </row>
-    <row r="215" spans="1:3">
-      <c r="A215" s="2">
+    <row r="216" spans="2:5">
+      <c r="B216" s="4">
+        <v>214</v>
+      </c>
+      <c r="C216" s="2">
         <v>42369</v>
       </c>
-      <c r="B215" s="1">
+      <c r="D216" s="3">
         <v>5.1377314814814813E-2</v>
       </c>
-      <c r="C215">
+      <c r="E216" s="5">
         <v>3.6537600000000001</v>
       </c>
     </row>
-    <row r="216" spans="1:3">
-      <c r="A216" s="2">
+    <row r="217" spans="2:5">
+      <c r="B217" s="4">
+        <v>215</v>
+      </c>
+      <c r="C217" s="2">
         <v>42369</v>
       </c>
-      <c r="B216" s="1">
+      <c r="D217" s="3">
         <v>0.123125</v>
       </c>
-      <c r="C216">
+      <c r="E217" s="5">
         <v>3.6537600000000001</v>
       </c>
     </row>
-    <row r="217" spans="1:3">
-      <c r="A217" s="2">
+    <row r="218" spans="2:5">
+      <c r="B218" s="4">
+        <v>216</v>
+      </c>
+      <c r="C218" s="2">
         <v>42369</v>
       </c>
-      <c r="B217" s="1">
+      <c r="D218" s="3">
         <v>0.46109953703703704</v>
       </c>
-      <c r="C217">
+      <c r="E218" s="5">
         <v>3.6326399999999999</v>
       </c>
     </row>
-    <row r="218" spans="1:3">
-      <c r="A218" s="2">
+    <row r="219" spans="2:5">
+      <c r="B219" s="4">
+        <v>217</v>
+      </c>
+      <c r="C219" s="2">
         <v>42369</v>
       </c>
-      <c r="B218" s="1">
+      <c r="D219" s="3">
         <v>0.46124999999999999</v>
       </c>
-      <c r="C218">
+      <c r="E219" s="5">
         <v>3.6326399999999999</v>
       </c>
     </row>
-    <row r="219" spans="1:3">
-      <c r="A219" s="2">
+    <row r="220" spans="2:5">
+      <c r="B220" s="4">
+        <v>218</v>
+      </c>
+      <c r="C220" s="2">
         <v>42369</v>
       </c>
-      <c r="B219" s="1">
+      <c r="D220" s="3">
         <v>0.46953703703703703</v>
       </c>
-      <c r="C219">
+      <c r="E220" s="5">
         <v>3.6326399999999999</v>
       </c>
     </row>
-    <row r="220" spans="1:3">
-      <c r="A220" s="2">
+    <row r="221" spans="2:5">
+      <c r="B221" s="4">
+        <v>219</v>
+      </c>
+      <c r="C221" s="2">
         <v>42369</v>
       </c>
-      <c r="B220" s="1">
+      <c r="D221" s="3">
         <v>0.48846064814814816</v>
       </c>
-      <c r="C220">
+      <c r="E221" s="5">
         <v>3.6326399999999999</v>
       </c>
     </row>
-    <row r="221" spans="1:3">
-      <c r="A221" s="2">
+    <row r="222" spans="2:5">
+      <c r="B222" s="4">
+        <v>220</v>
+      </c>
+      <c r="C222" s="2">
         <v>42369</v>
       </c>
-      <c r="B221" s="1">
+      <c r="D222" s="3">
         <v>0.49768518518518517</v>
       </c>
-      <c r="C221">
+      <c r="E222" s="5">
         <v>3.6326399999999999</v>
       </c>
     </row>
-    <row r="222" spans="1:3">
-      <c r="A222" s="2">
+    <row r="223" spans="2:5">
+      <c r="B223" s="4">
+        <v>221</v>
+      </c>
+      <c r="C223" s="2">
         <v>42369</v>
       </c>
-      <c r="B222" s="1">
+      <c r="D223" s="3">
         <v>0.49788194444444445</v>
       </c>
-      <c r="C222">
+      <c r="E223" s="5">
         <v>3.62208</v>
       </c>
     </row>
-    <row r="223" spans="1:3">
-      <c r="A223" s="2">
+    <row r="224" spans="2:5">
+      <c r="B224" s="4">
+        <v>222</v>
+      </c>
+      <c r="C224" s="2">
         <v>42369</v>
       </c>
-      <c r="B223" s="1">
+      <c r="D224" s="3">
         <v>0.49866898148148148</v>
       </c>
-      <c r="C223">
+      <c r="E224" s="5">
         <v>3.62208</v>
       </c>
     </row>
-    <row r="224" spans="1:3">
-      <c r="A224" s="2">
+    <row r="225" spans="2:5">
+      <c r="B225" s="4">
+        <v>223</v>
+      </c>
+      <c r="C225" s="2">
         <v>42369</v>
       </c>
-      <c r="B224" s="1">
+      <c r="D225" s="3">
         <v>0.58253472222222225</v>
       </c>
-      <c r="C224">
+      <c r="E225" s="5">
         <v>3.6115200000000001</v>
       </c>
     </row>
-    <row r="225" spans="1:3">
-      <c r="A225" s="2">
+    <row r="226" spans="2:5">
+      <c r="B226" s="4">
+        <v>224</v>
+      </c>
+      <c r="C226" s="2">
         <v>42369</v>
       </c>
-      <c r="B225" s="1">
+      <c r="D226" s="3">
         <v>0.80964120370370374</v>
       </c>
-      <c r="C225">
+      <c r="E226" s="5">
         <v>3.42144</v>
       </c>
     </row>
-    <row r="226" spans="1:3">
-      <c r="A226" s="2">
+    <row r="227" spans="2:5">
+      <c r="B227" s="4">
+        <v>225</v>
+      </c>
+      <c r="C227" s="2">
         <v>42369</v>
       </c>
-      <c r="B226" s="1">
+      <c r="D227" s="3">
         <v>0.81004629629629632</v>
       </c>
-      <c r="C226">
+      <c r="E227" s="5">
         <v>3.4108800000000001</v>
       </c>
     </row>
-    <row r="227" spans="1:3">
-      <c r="A227" s="2">
+    <row r="228" spans="2:5">
+      <c r="B228" s="4">
+        <v>226</v>
+      </c>
+      <c r="C228" s="2">
         <v>42369</v>
       </c>
-      <c r="B227" s="1">
+      <c r="D228" s="3">
         <v>0.81076388888888884</v>
       </c>
-      <c r="C227">
+      <c r="E228" s="5">
         <v>3.4003199999999998</v>
       </c>
     </row>
-    <row r="228" spans="1:3">
-      <c r="A228" s="2">
+    <row r="229" spans="2:5">
+      <c r="B229" s="4">
+        <v>227</v>
+      </c>
+      <c r="C229" s="2">
         <v>42369</v>
       </c>
-      <c r="B228" s="1">
+      <c r="D229" s="3">
         <v>0.93226851851851855</v>
       </c>
-      <c r="C228">
+      <c r="E229" s="5">
         <v>3.1996799999999999</v>
       </c>
     </row>
-    <row r="229" spans="1:3">
-      <c r="A229" s="2">
+    <row r="230" spans="2:5">
+      <c r="B230" s="4">
+        <v>228</v>
+      </c>
+      <c r="C230" s="2">
         <v>42369</v>
       </c>
-      <c r="B229" s="1">
+      <c r="D230" s="3">
         <v>0.95864583333333331</v>
       </c>
-      <c r="C229">
+      <c r="E230" s="5">
         <v>3.18912</v>
       </c>
     </row>
-    <row r="230" spans="1:3">
-      <c r="A230" s="2">
+    <row r="231" spans="2:5">
+      <c r="B231" s="4">
+        <v>229</v>
+      </c>
+      <c r="C231" s="2">
         <v>42369</v>
       </c>
-      <c r="B230" s="1">
+      <c r="D231" s="3">
         <v>0.97333333333333327</v>
       </c>
-      <c r="C230">
+      <c r="E231" s="5">
         <v>2.9779200000000001</v>
       </c>
     </row>
-    <row r="231" spans="1:3">
-      <c r="A231" s="2">
+    <row r="232" spans="2:5">
+      <c r="B232" s="4">
+        <v>230</v>
+      </c>
+      <c r="C232" s="2">
         <v>42369</v>
       </c>
-      <c r="B231" s="1">
+      <c r="D232" s="3">
         <v>0.9735300925925926</v>
       </c>
-      <c r="C231">
+      <c r="E232" s="5">
         <v>2.9145599999999998</v>
       </c>
     </row>
-    <row r="232" spans="1:3">
-      <c r="A232" s="2">
+    <row r="233" spans="2:5">
+      <c r="B233" s="4">
+        <v>231</v>
+      </c>
+      <c r="C233" s="2">
         <v>42369</v>
       </c>
-      <c r="B232" s="1">
+      <c r="D233" s="3">
         <v>0.97375</v>
       </c>
-      <c r="C232">
+      <c r="E233" s="5">
         <v>2.8300800000000002</v>
       </c>
     </row>
-    <row r="233" spans="1:3">
-      <c r="A233" s="2">
+    <row r="234" spans="2:5">
+      <c r="B234" s="4">
+        <v>232</v>
+      </c>
+      <c r="C234" s="2">
         <v>42369</v>
       </c>
-      <c r="B233" s="1">
+      <c r="D234" s="3">
         <v>0.99207175925925928</v>
       </c>
-      <c r="C233">
+      <c r="E234" s="5">
         <v>2.9039999999999999</v>
       </c>
     </row>
-    <row r="234" spans="1:3">
-      <c r="A234" s="2">
+    <row r="235" spans="2:5">
+      <c r="B235" s="4">
+        <v>233</v>
+      </c>
+      <c r="C235" s="2">
         <v>42370</v>
       </c>
-      <c r="B234" s="1">
+      <c r="D235" s="3">
         <v>0.18812499999999999</v>
       </c>
-      <c r="C234">
+      <c r="E235" s="5">
         <v>2.4287999999999998</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:C234">
-    <sortCondition ref="A2:A234"/>
-    <sortCondition ref="B2:B234"/>
+  <sortState ref="C2:E234">
+    <sortCondition ref="C2:C234"/>
+    <sortCondition ref="D2:D234"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
